--- a/Jogos_da_Semana_FlashScore_2024-09-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-09-25.xlsx
@@ -756,7 +756,7 @@
         <v>4.75</v>
       </c>
       <c r="J2" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="K2" t="n">
         <v>2.2</v>
@@ -789,10 +789,10 @@
         <v>2.75</v>
       </c>
       <c r="U2" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="V2" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="W2" t="n">
         <v>7</v>
@@ -813,22 +813,22 @@
         <v>26</v>
       </c>
       <c r="AC2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD2" t="n">
         <v>7</v>
       </c>
       <c r="AE2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF2" t="n">
         <v>51</v>
       </c>
       <c r="AG2" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI2" t="n">
         <v>23</v>
@@ -876,7 +876,7 @@
         <v>6.5</v>
       </c>
       <c r="AX2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AY2" t="n">
         <v>34</v>
@@ -888,7 +888,7 @@
         <v>101</v>
       </c>
       <c r="BB2" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC2" t="n">
         <v>151</v>
@@ -944,7 +944,7 @@
         <v>2.75</v>
       </c>
       <c r="L3" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="M3" t="n">
         <v>1.03</v>
@@ -986,7 +986,7 @@
         <v>9.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AA3" t="n">
         <v>11</v>
@@ -1007,7 +1007,7 @@
         <v>81</v>
       </c>
       <c r="AG3" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AH3" t="n">
         <v>26</v>
@@ -1028,7 +1028,7 @@
         <v>67</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="AO3" t="n">
         <v>5.5</v>
@@ -1067,13 +1067,13 @@
         <v>251</v>
       </c>
       <c r="BA3" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BB3" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="BC3" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD3" t="n">
         <v>151</v>
@@ -1111,55 +1111,55 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H4" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I4" t="n">
         <v>2.25</v>
       </c>
       <c r="J4" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K4" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N4" t="n">
+        <v>15</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R4" t="n">
         <v>2.25</v>
       </c>
-      <c r="L4" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N4" t="n">
+      <c r="S4" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T4" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="V4" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W4" t="n">
         <v>13</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P4" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R4" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T4" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V4" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W4" t="n">
-        <v>12</v>
       </c>
       <c r="X4" t="n">
         <v>17</v>
@@ -1171,31 +1171,31 @@
         <v>34</v>
       </c>
       <c r="AA4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI4" t="n">
         <v>13</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>12</v>
       </c>
       <c r="AJ4" t="n">
         <v>9</v>
@@ -1207,7 +1207,7 @@
         <v>17</v>
       </c>
       <c r="AM4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN4" t="n">
         <v>5</v>
@@ -1222,16 +1222,16 @@
         <v>51</v>
       </c>
       <c r="AR4" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS4" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT4" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU4" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV4" t="n">
         <v>41</v>
@@ -1252,13 +1252,13 @@
         <v>51</v>
       </c>
       <c r="BB4" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BC4" t="n">
-        <v>451</v>
+        <v>351</v>
       </c>
       <c r="BD4" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5">
@@ -1293,22 +1293,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="H5" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I5" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="J5" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="K5" t="n">
         <v>2.3</v>
       </c>
       <c r="L5" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="M5" t="n">
         <v>1.04</v>
@@ -1335,22 +1335,22 @@
         <v>3.25</v>
       </c>
       <c r="U5" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="V5" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W5" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y5" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA5" t="n">
         <v>15</v>
@@ -1374,40 +1374,40 @@
         <v>151</v>
       </c>
       <c r="AH5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM5" t="n">
         <v>34</v>
       </c>
-      <c r="AL5" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>29</v>
-      </c>
       <c r="AN5" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO5" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AP5" t="n">
         <v>19</v>
       </c>
       <c r="AQ5" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR5" t="n">
         <v>51</v>
       </c>
       <c r="AS5" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT5" t="n">
         <v>3.25</v>
@@ -1416,22 +1416,22 @@
         <v>7.5</v>
       </c>
       <c r="AV5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW5" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AX5" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AY5" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ5" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA5" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB5" t="n">
         <v>151</v>
@@ -1660,10 +1660,10 @@
         <v>1.17</v>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="I7" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J7" t="n">
         <v>1.5</v>
@@ -1705,7 +1705,7 @@
         <v>1.6</v>
       </c>
       <c r="W7" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X7" t="n">
         <v>6.5</v>
@@ -1723,7 +1723,7 @@
         <v>29</v>
       </c>
       <c r="AC7" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AD7" t="n">
         <v>15</v>
@@ -1738,19 +1738,19 @@
         <v>351</v>
       </c>
       <c r="AH7" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI7" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AJ7" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AK7" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AL7" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AM7" t="n">
         <v>67</v>
@@ -1771,7 +1771,7 @@
         <v>34</v>
       </c>
       <c r="AS7" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT7" t="n">
         <v>4</v>
@@ -1848,7 +1848,7 @@
         <v>1.36</v>
       </c>
       <c r="J8" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="K8" t="n">
         <v>2.25</v>
@@ -1863,16 +1863,16 @@
         <v>8.5</v>
       </c>
       <c r="O8" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P8" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q8" t="n">
         <v>2.05</v>
       </c>
       <c r="R8" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S8" t="n">
         <v>1.4</v>
@@ -1881,10 +1881,10 @@
         <v>2.75</v>
       </c>
       <c r="U8" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="V8" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="W8" t="n">
         <v>19</v>
@@ -1926,7 +1926,7 @@
         <v>5.5</v>
       </c>
       <c r="AJ8" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK8" t="n">
         <v>8</v>
@@ -1935,7 +1935,7 @@
         <v>13</v>
       </c>
       <c r="AM8" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN8" t="n">
         <v>9.5</v>
@@ -1950,7 +1950,7 @@
         <v>251</v>
       </c>
       <c r="AR8" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AS8" t="n">
         <v>351</v>
@@ -2203,94 +2203,94 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="H10" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="I10" t="n">
-        <v>3.9</v>
+        <v>4.33</v>
       </c>
       <c r="J10" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K10" t="n">
         <v>2.5</v>
-      </c>
-      <c r="K10" t="n">
-        <v>2.38</v>
       </c>
       <c r="L10" t="n">
         <v>4</v>
       </c>
       <c r="M10" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N10" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="O10" t="n">
-        <v>1.2</v>
+        <v>1.14</v>
       </c>
       <c r="P10" t="n">
-        <v>4.33</v>
+        <v>5.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="R10" t="n">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="S10" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="T10" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="U10" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="V10" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="W10" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X10" t="n">
         <v>11</v>
       </c>
       <c r="Y10" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC10" t="n">
         <v>17</v>
       </c>
-      <c r="AA10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>15</v>
-      </c>
       <c r="AD10" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE10" t="n">
         <v>12</v>
       </c>
       <c r="AF10" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG10" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AH10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ10" t="n">
         <v>15</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>13</v>
       </c>
       <c r="AK10" t="n">
         <v>41</v>
@@ -2302,28 +2302,28 @@
         <v>29</v>
       </c>
       <c r="AN10" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AP10" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AQ10" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AR10" t="n">
         <v>41</v>
       </c>
       <c r="AS10" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AT10" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AU10" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV10" t="n">
         <v>41</v>
@@ -2332,7 +2332,7 @@
         <v>6</v>
       </c>
       <c r="AX10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY10" t="n">
         <v>23</v>
@@ -2573,7 +2573,7 @@
         <v>4</v>
       </c>
       <c r="I12" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="J12" t="n">
         <v>1.95</v>
@@ -2582,13 +2582,13 @@
         <v>2.2</v>
       </c>
       <c r="L12" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="M12" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N12" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="O12" t="n">
         <v>1.36</v>
@@ -2597,10 +2597,10 @@
         <v>3</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R12" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S12" t="n">
         <v>1.44</v>
@@ -2609,10 +2609,10 @@
         <v>2.63</v>
       </c>
       <c r="U12" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V12" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="W12" t="n">
         <v>5</v>
@@ -2624,7 +2624,7 @@
         <v>9.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA12" t="n">
         <v>15</v>
@@ -2636,10 +2636,10 @@
         <v>7.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE12" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AF12" t="n">
         <v>101</v>
@@ -2690,13 +2690,13 @@
         <v>11</v>
       </c>
       <c r="AV12" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AW12" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AX12" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AY12" t="n">
         <v>51</v>
@@ -2705,7 +2705,7 @@
         <v>251</v>
       </c>
       <c r="BA12" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BB12" t="n">
         <v>501</v>
@@ -2752,19 +2752,19 @@
         <v>2.15</v>
       </c>
       <c r="H13" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I13" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="J13" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="K13" t="n">
         <v>2.12</v>
       </c>
       <c r="L13" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="M13" t="n">
         <v>1.01</v>
@@ -2797,13 +2797,13 @@
         <v>2.36</v>
       </c>
       <c r="W13" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="X13" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="Y13" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="Z13" t="n">
         <v>19</v>
@@ -2812,7 +2812,7 @@
         <v>13</v>
       </c>
       <c r="AB13" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AC13" t="n">
         <v>11.75</v>
@@ -2821,7 +2821,7 @@
         <v>5.7</v>
       </c>
       <c r="AE13" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AF13" t="n">
         <v>30</v>
@@ -2842,10 +2842,10 @@
         <v>32</v>
       </c>
       <c r="AL13" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AM13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AN13" t="n">
         <v>4.3</v>
@@ -2854,13 +2854,13 @@
         <v>11</v>
       </c>
       <c r="AP13" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AQ13" t="n">
         <v>40</v>
       </c>
       <c r="AR13" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AS13" t="n">
         <v>150</v>
@@ -2869,7 +2869,7 @@
         <v>2.95</v>
       </c>
       <c r="AU13" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AV13" t="n">
         <v>45</v>
@@ -2890,7 +2890,7 @@
         <v>100</v>
       </c>
       <c r="BB13" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="BC13" t="n">
         <v>51</v>
@@ -3113,52 +3113,52 @@
         </is>
       </c>
       <c r="G15" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K15" t="n">
         <v>2.25</v>
       </c>
-      <c r="H15" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I15" t="n">
-        <v>3</v>
-      </c>
-      <c r="J15" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K15" t="n">
-        <v>2.3</v>
-      </c>
       <c r="L15" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M15" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O15" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P15" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="R15" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="S15" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T15" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="U15" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="V15" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="W15" t="n">
         <v>10</v>
@@ -3167,43 +3167,43 @@
         <v>13</v>
       </c>
       <c r="Y15" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z15" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AA15" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB15" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AC15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD15" t="n">
         <v>6.5</v>
       </c>
       <c r="AE15" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH15" t="n">
         <v>11</v>
       </c>
-      <c r="AF15" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>126</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>13</v>
-      </c>
       <c r="AI15" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK15" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AL15" t="n">
         <v>21</v>
@@ -3212,13 +3212,13 @@
         <v>26</v>
       </c>
       <c r="AN15" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP15" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ15" t="n">
         <v>41</v>
@@ -3227,19 +3227,19 @@
         <v>51</v>
       </c>
       <c r="AS15" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT15" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AU15" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AV15" t="n">
         <v>41</v>
       </c>
       <c r="AW15" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AX15" t="n">
         <v>15</v>
@@ -3248,7 +3248,7 @@
         <v>21</v>
       </c>
       <c r="AZ15" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA15" t="n">
         <v>51</v>
@@ -3313,10 +3313,10 @@
         <v>4.75</v>
       </c>
       <c r="M16" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N16" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O16" t="n">
         <v>1.2</v>
@@ -3477,13 +3477,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="H17" t="n">
         <v>3.75</v>
       </c>
       <c r="I17" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J17" t="n">
         <v>2.5</v>
@@ -3492,7 +3492,7 @@
         <v>2.4</v>
       </c>
       <c r="L17" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M17" t="n">
         <v>1.03</v>
@@ -3525,7 +3525,7 @@
         <v>2.38</v>
       </c>
       <c r="W17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X17" t="n">
         <v>11</v>
@@ -3534,7 +3534,7 @@
         <v>9</v>
       </c>
       <c r="Z17" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA17" t="n">
         <v>13</v>
@@ -3555,7 +3555,7 @@
         <v>34</v>
       </c>
       <c r="AG17" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AH17" t="n">
         <v>15</v>
@@ -3564,16 +3564,16 @@
         <v>21</v>
       </c>
       <c r="AJ17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK17" t="n">
         <v>41</v>
       </c>
       <c r="AL17" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM17" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN17" t="n">
         <v>4.33</v>
@@ -3606,7 +3606,7 @@
         <v>6</v>
       </c>
       <c r="AX17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AY17" t="n">
         <v>21</v>
@@ -3659,16 +3659,16 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="H18" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I18" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J18" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="K18" t="n">
         <v>2.5</v>
@@ -3689,10 +3689,10 @@
         <v>5</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="R18" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="S18" t="n">
         <v>1.29</v>
@@ -3701,16 +3701,16 @@
         <v>3.5</v>
       </c>
       <c r="U18" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="V18" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W18" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X18" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Y18" t="n">
         <v>8.5</v>
@@ -3728,7 +3728,7 @@
         <v>17</v>
       </c>
       <c r="AD18" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AE18" t="n">
         <v>15</v>
@@ -3761,10 +3761,10 @@
         <v>3.75</v>
       </c>
       <c r="AO18" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AP18" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AQ18" t="n">
         <v>21</v>
@@ -3779,7 +3779,7 @@
         <v>3.5</v>
       </c>
       <c r="AU18" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV18" t="n">
         <v>41</v>
@@ -3791,7 +3791,7 @@
         <v>26</v>
       </c>
       <c r="AY18" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ18" t="n">
         <v>81</v>
@@ -4023,22 +4023,22 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="H20" t="n">
-        <v>5.4</v>
+        <v>4.9</v>
       </c>
       <c r="I20" t="n">
-        <v>7.2</v>
+        <v>5.9</v>
       </c>
       <c r="J20" t="n">
-        <v>1.72</v>
+        <v>1.82</v>
       </c>
       <c r="K20" t="n">
-        <v>2.77</v>
+        <v>2.72</v>
       </c>
       <c r="L20" t="n">
-        <v>6</v>
+        <v>5.3</v>
       </c>
       <c r="M20" t="n">
         <v>1.02</v>
@@ -4047,16 +4047,16 @@
         <v>10</v>
       </c>
       <c r="O20" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="P20" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="R20" t="n">
-        <v>3</v>
+        <v>2.87</v>
       </c>
       <c r="S20" t="n">
         <v>1.21</v>
@@ -4065,109 +4065,109 @@
         <v>3.95</v>
       </c>
       <c r="U20" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="V20" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="W20" t="n">
         <v>12</v>
       </c>
       <c r="X20" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="Y20" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="Z20" t="n">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="AA20" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AB20" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AD20" t="n">
-        <v>11.75</v>
+        <v>10.75</v>
       </c>
       <c r="AE20" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AF20" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AG20" t="n">
         <v>250</v>
       </c>
       <c r="AH20" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="AI20" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="AJ20" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AK20" t="n">
-        <v>175</v>
+        <v>120</v>
       </c>
       <c r="AL20" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="AM20" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AN20" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="AO20" t="n">
-        <v>5.9</v>
+        <v>6.4</v>
       </c>
       <c r="AP20" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AQ20" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="AR20" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AS20" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AT20" t="n">
         <v>3.95</v>
       </c>
       <c r="AU20" t="n">
-        <v>7.5</v>
+        <v>7.1</v>
       </c>
       <c r="AV20" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AW20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX20" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="AY20" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ20" t="n">
+        <v>150</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>150</v>
+      </c>
+      <c r="BB20" t="n">
         <v>200</v>
       </c>
-      <c r="BA20" t="n">
-        <v>175</v>
-      </c>
-      <c r="BB20" t="n">
-        <v>250</v>
-      </c>
       <c r="BC20" t="n">
-        <v>51</v>
+        <v>500</v>
       </c>
       <c r="BD20" t="n">
         <v>51</v>
@@ -4208,100 +4208,100 @@
         <v>1.55</v>
       </c>
       <c r="H21" t="n">
-        <v>4.4</v>
+        <v>4.25</v>
       </c>
       <c r="I21" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="K21" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="L21" t="n">
         <v>4.75</v>
       </c>
-      <c r="J21" t="n">
-        <v>2</v>
-      </c>
-      <c r="K21" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L21" t="n">
-        <v>4.5</v>
-      </c>
       <c r="M21" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N21" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="O21" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="P21" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="R21" t="n">
-        <v>2.75</v>
+        <v>2.67</v>
       </c>
       <c r="S21" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="T21" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="U21" t="n">
         <v>1.47</v>
       </c>
       <c r="V21" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="W21" t="n">
         <v>11.5</v>
       </c>
       <c r="X21" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="Y21" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="Z21" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AA21" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AB21" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AD21" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AE21" t="n">
         <v>13</v>
       </c>
       <c r="AF21" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AG21" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AH21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI21" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AJ21" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AK21" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AL21" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AM21" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AN21" t="n">
         <v>3.95</v>
@@ -4310,7 +4310,7 @@
         <v>7.3</v>
       </c>
       <c r="AP21" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AQ21" t="n">
         <v>19</v>
@@ -4322,10 +4322,10 @@
         <v>100</v>
       </c>
       <c r="AT21" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="AU21" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AV21" t="n">
         <v>40</v>
@@ -4334,22 +4334,22 @@
         <v>7.2</v>
       </c>
       <c r="AX21" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AY21" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AZ21" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="BA21" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="BB21" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="BC21" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="BD21" t="n">
         <v>51</v>
@@ -4387,52 +4387,52 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.45</v>
+        <v>2.75</v>
       </c>
       <c r="H22" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I22" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J22" t="n">
         <v>3.4</v>
-      </c>
-      <c r="I22" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="J22" t="n">
-        <v>3.1</v>
       </c>
       <c r="K22" t="n">
         <v>2.2</v>
       </c>
       <c r="L22" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M22" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N22" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O22" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P22" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.83</v>
+        <v>1.98</v>
       </c>
       <c r="R22" t="n">
-        <v>2.03</v>
+        <v>1.88</v>
       </c>
       <c r="S22" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T22" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U22" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="V22" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W22" t="n">
         <v>9.5</v>
@@ -4441,19 +4441,19 @@
         <v>13</v>
       </c>
       <c r="Y22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z22" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AA22" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB22" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD22" t="n">
         <v>6.5</v>
@@ -4465,46 +4465,46 @@
         <v>41</v>
       </c>
       <c r="AG22" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI22" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AJ22" t="n">
         <v>10</v>
       </c>
       <c r="AK22" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AL22" t="n">
         <v>21</v>
       </c>
       <c r="AM22" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN22" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO22" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP22" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ22" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR22" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS22" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT22" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU22" t="n">
         <v>7.5</v>
@@ -4513,16 +4513,16 @@
         <v>51</v>
       </c>
       <c r="AW22" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AX22" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AY22" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ22" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA22" t="n">
         <v>67</v>
@@ -4569,22 +4569,22 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="H23" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="I23" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="J23" t="n">
         <v>3.1</v>
       </c>
       <c r="K23" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="L23" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M23" t="n">
         <v>1.02</v>
@@ -4608,22 +4608,22 @@
         <v>1.4</v>
       </c>
       <c r="T23" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="U23" t="n">
         <v>1.78</v>
       </c>
       <c r="V23" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="W23" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="X23" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="Y23" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="Z23" t="n">
         <v>28</v>
@@ -4635,31 +4635,31 @@
         <v>35</v>
       </c>
       <c r="AC23" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AD23" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AE23" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AF23" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AG23" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AH23" t="n">
-        <v>7.9</v>
+        <v>8.25</v>
       </c>
       <c r="AI23" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AJ23" t="n">
         <v>10.25</v>
       </c>
       <c r="AK23" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AL23" t="n">
         <v>25</v>
@@ -4668,7 +4668,7 @@
         <v>35</v>
       </c>
       <c r="AN23" t="n">
-        <v>4.4</v>
+        <v>4.35</v>
       </c>
       <c r="AO23" t="n">
         <v>13.5</v>
@@ -4677,7 +4677,7 @@
         <v>21</v>
       </c>
       <c r="AQ23" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AR23" t="n">
         <v>90</v>
@@ -4686,25 +4686,25 @@
         <v>250</v>
       </c>
       <c r="AT23" t="n">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="AU23" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AV23" t="n">
         <v>60</v>
       </c>
       <c r="AW23" t="n">
-        <v>4.6</v>
+        <v>4.65</v>
       </c>
       <c r="AX23" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AY23" t="n">
         <v>22</v>
       </c>
       <c r="AZ23" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="BA23" t="n">
         <v>100</v>
@@ -4775,10 +4775,10 @@
         <v>5.5</v>
       </c>
       <c r="O24" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="P24" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q24" t="n">
         <v>3.1</v>
@@ -4933,13 +4933,13 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="H25" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="I25" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="J25" t="n">
         <v>8</v>
@@ -4948,7 +4948,7 @@
         <v>2.2</v>
       </c>
       <c r="L25" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="M25" t="n">
         <v>1.07</v>
@@ -4957,10 +4957,10 @@
         <v>9</v>
       </c>
       <c r="O25" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P25" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q25" t="n">
         <v>2.1</v>
@@ -4975,19 +4975,19 @@
         <v>2.63</v>
       </c>
       <c r="U25" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="V25" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="W25" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="X25" t="n">
         <v>41</v>
       </c>
       <c r="Y25" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z25" t="n">
         <v>101</v>
@@ -4996,7 +4996,7 @@
         <v>67</v>
       </c>
       <c r="AB25" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AC25" t="n">
         <v>8</v>
@@ -5005,25 +5005,25 @@
         <v>8</v>
       </c>
       <c r="AE25" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF25" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AG25" t="n">
         <v>101</v>
       </c>
       <c r="AH25" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI25" t="n">
         <v>5.5</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>6</v>
       </c>
       <c r="AJ25" t="n">
         <v>9</v>
       </c>
       <c r="AK25" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AL25" t="n">
         <v>15</v>
@@ -5032,7 +5032,7 @@
         <v>41</v>
       </c>
       <c r="AN25" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AO25" t="n">
         <v>41</v>
@@ -5053,22 +5053,22 @@
         <v>2.63</v>
       </c>
       <c r="AU25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV25" t="n">
         <v>81</v>
       </c>
       <c r="AW25" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="AX25" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AY25" t="n">
         <v>23</v>
       </c>
       <c r="AZ25" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BA25" t="n">
         <v>51</v>
@@ -5682,19 +5682,19 @@
         <v>1.03</v>
       </c>
       <c r="N29" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O29" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P29" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R29" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="S29" t="n">
         <v>1.29</v>
@@ -5843,22 +5843,22 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="H30" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="I30" t="n">
-        <v>5.5</v>
+        <v>6.25</v>
       </c>
       <c r="J30" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="K30" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="L30" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M30" t="n">
         <v>1.02</v>
@@ -5885,37 +5885,37 @@
         <v>3.75</v>
       </c>
       <c r="U30" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="V30" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W30" t="n">
         <v>10</v>
       </c>
       <c r="X30" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Y30" t="n">
         <v>8.5</v>
       </c>
       <c r="Z30" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA30" t="n">
         <v>11</v>
       </c>
       <c r="AB30" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC30" t="n">
         <v>19</v>
       </c>
       <c r="AD30" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AE30" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF30" t="n">
         <v>41</v>
@@ -5930,22 +5930,22 @@
         <v>34</v>
       </c>
       <c r="AJ30" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK30" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AL30" t="n">
         <v>41</v>
       </c>
       <c r="AM30" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN30" t="n">
         <v>3.75</v>
       </c>
       <c r="AO30" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AP30" t="n">
         <v>15</v>
@@ -5963,25 +5963,25 @@
         <v>3.75</v>
       </c>
       <c r="AU30" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV30" t="n">
         <v>41</v>
       </c>
       <c r="AW30" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AX30" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AY30" t="n">
         <v>29</v>
       </c>
       <c r="AZ30" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA30" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB30" t="n">
         <v>151</v>
@@ -6025,16 +6025,16 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H31" t="n">
         <v>3.5</v>
       </c>
       <c r="I31" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="J31" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K31" t="n">
         <v>2.25</v>
@@ -6046,7 +6046,7 @@
         <v>1.04</v>
       </c>
       <c r="N31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O31" t="n">
         <v>1.22</v>
@@ -6055,22 +6055,22 @@
         <v>4</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="R31" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="S31" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T31" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U31" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="V31" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W31" t="n">
         <v>11</v>
@@ -6082,16 +6082,16 @@
         <v>11</v>
       </c>
       <c r="Z31" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AA31" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB31" t="n">
         <v>29</v>
       </c>
       <c r="AC31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD31" t="n">
         <v>7</v>
@@ -6106,13 +6106,13 @@
         <v>151</v>
       </c>
       <c r="AH31" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI31" t="n">
         <v>12</v>
       </c>
       <c r="AJ31" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK31" t="n">
         <v>21</v>
@@ -6127,10 +6127,10 @@
         <v>5</v>
       </c>
       <c r="AO31" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP31" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ31" t="n">
         <v>51</v>
@@ -6139,16 +6139,16 @@
         <v>67</v>
       </c>
       <c r="AS31" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT31" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU31" t="n">
         <v>7.5</v>
       </c>
       <c r="AV31" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW31" t="n">
         <v>4.5</v>
@@ -6207,19 +6207,19 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="H32" t="n">
         <v>3.4</v>
       </c>
       <c r="I32" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="J32" t="n">
         <v>3.25</v>
       </c>
       <c r="K32" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L32" t="n">
         <v>3</v>
@@ -6285,7 +6285,7 @@
         <v>41</v>
       </c>
       <c r="AG32" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AH32" t="n">
         <v>10</v>
@@ -6315,7 +6315,7 @@
         <v>21</v>
       </c>
       <c r="AQ32" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR32" t="n">
         <v>51</v>
@@ -6333,7 +6333,7 @@
         <v>41</v>
       </c>
       <c r="AW32" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AX32" t="n">
         <v>13</v>
@@ -6389,19 +6389,19 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="H33" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I33" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="J33" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="K33" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L33" t="n">
         <v>4</v>
@@ -6437,16 +6437,16 @@
         <v>2.38</v>
       </c>
       <c r="W33" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X33" t="n">
         <v>11</v>
       </c>
       <c r="Y33" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z33" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA33" t="n">
         <v>13</v>
@@ -6464,7 +6464,7 @@
         <v>13</v>
       </c>
       <c r="AF33" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG33" t="n">
         <v>126</v>
@@ -6473,7 +6473,7 @@
         <v>15</v>
       </c>
       <c r="AI33" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ33" t="n">
         <v>13</v>
@@ -6485,19 +6485,19 @@
         <v>26</v>
       </c>
       <c r="AM33" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ33" t="n">
         <v>29</v>
-      </c>
-      <c r="AN33" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO33" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP33" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ33" t="n">
-        <v>26</v>
       </c>
       <c r="AR33" t="n">
         <v>41</v>
@@ -6518,10 +6518,10 @@
         <v>6</v>
       </c>
       <c r="AX33" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY33" t="n">
         <v>21</v>
-      </c>
-      <c r="AY33" t="n">
-        <v>23</v>
       </c>
       <c r="AZ33" t="n">
         <v>51</v>
@@ -6571,28 +6571,28 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="H34" t="n">
         <v>3.4</v>
       </c>
       <c r="I34" t="n">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="J34" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K34" t="n">
         <v>2.25</v>
       </c>
       <c r="L34" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="M34" t="n">
         <v>1.04</v>
       </c>
       <c r="N34" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O34" t="n">
         <v>1.22</v>
@@ -6601,16 +6601,16 @@
         <v>4</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="R34" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S34" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T34" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U34" t="n">
         <v>1.62</v>
@@ -6634,7 +6634,7 @@
         <v>21</v>
       </c>
       <c r="AB34" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC34" t="n">
         <v>12</v>
@@ -6652,19 +6652,19 @@
         <v>151</v>
       </c>
       <c r="AH34" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI34" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ34" t="n">
         <v>9.5</v>
       </c>
       <c r="AK34" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL34" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM34" t="n">
         <v>23</v>
@@ -6676,31 +6676,31 @@
         <v>15</v>
       </c>
       <c r="AP34" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ34" t="n">
         <v>51</v>
       </c>
       <c r="AR34" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS34" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT34" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU34" t="n">
         <v>7.5</v>
       </c>
       <c r="AV34" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW34" t="n">
         <v>4.5</v>
       </c>
       <c r="AX34" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY34" t="n">
         <v>21</v>
@@ -6783,10 +6783,10 @@
         <v>4.5</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="R35" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="S35" t="n">
         <v>1.29</v>
@@ -7079,7 +7079,7 @@
         <v>201</v>
       </c>
       <c r="BC36" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD36" t="n">
         <v>151</v>
@@ -7117,10 +7117,10 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="H37" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I37" t="n">
         <v>2.5</v>
@@ -7129,7 +7129,7 @@
         <v>3.25</v>
       </c>
       <c r="K37" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L37" t="n">
         <v>3.1</v>
@@ -7141,31 +7141,31 @@
         <v>13</v>
       </c>
       <c r="O37" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="P37" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="R37" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="S37" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T37" t="n">
+        <v>3</v>
+      </c>
+      <c r="U37" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V37" t="n">
         <v>2.1</v>
       </c>
-      <c r="S37" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T37" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U37" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V37" t="n">
-        <v>2.2</v>
-      </c>
       <c r="W37" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X37" t="n">
         <v>15</v>
@@ -7183,7 +7183,7 @@
         <v>26</v>
       </c>
       <c r="AC37" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD37" t="n">
         <v>6.5</v>
@@ -7198,22 +7198,22 @@
         <v>151</v>
       </c>
       <c r="AH37" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI37" t="n">
         <v>13</v>
       </c>
       <c r="AJ37" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK37" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL37" t="n">
         <v>19</v>
       </c>
       <c r="AM37" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN37" t="n">
         <v>4.75</v>
@@ -7225,25 +7225,25 @@
         <v>21</v>
       </c>
       <c r="AQ37" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR37" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS37" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT37" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU37" t="n">
         <v>7.5</v>
       </c>
       <c r="AV37" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW37" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AX37" t="n">
         <v>13</v>
@@ -7261,7 +7261,7 @@
         <v>126</v>
       </c>
       <c r="BC37" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="BD37" t="n">
         <v>151</v>
@@ -7299,22 +7299,22 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="H38" t="n">
         <v>3.1</v>
       </c>
       <c r="I38" t="n">
-        <v>2.15</v>
+        <v>2.22</v>
       </c>
       <c r="J38" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="K38" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="L38" t="n">
-        <v>2.82</v>
+        <v>2.9</v>
       </c>
       <c r="M38" t="n">
         <v>1.09</v>
@@ -7335,10 +7335,10 @@
         <v>1.6</v>
       </c>
       <c r="S38" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="T38" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="U38" t="n">
         <v>1.93</v>
@@ -7347,19 +7347,19 @@
         <v>1.78</v>
       </c>
       <c r="W38" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X38" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="Y38" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="Z38" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AA38" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AB38" t="n">
         <v>45</v>
@@ -7380,34 +7380,34 @@
         <v>900</v>
       </c>
       <c r="AH38" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AI38" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AJ38" t="n">
         <v>9.25</v>
       </c>
       <c r="AK38" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AL38" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AM38" t="n">
         <v>37</v>
       </c>
       <c r="AN38" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="AO38" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AP38" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AQ38" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AR38" t="n">
         <v>150</v>
@@ -7419,16 +7419,16 @@
         <v>2.5</v>
       </c>
       <c r="AU38" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AV38" t="n">
         <v>80</v>
       </c>
       <c r="AW38" t="n">
-        <v>3.95</v>
+        <v>4.05</v>
       </c>
       <c r="AX38" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AY38" t="n">
         <v>23</v>

--- a/Jogos_da_Semana_FlashScore_2024-09-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-09-25.xlsx
@@ -771,16 +771,16 @@
         <v>11</v>
       </c>
       <c r="O2" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P2" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="R2" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="S2" t="n">
         <v>1.4</v>
@@ -929,22 +929,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="I3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J3" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="K3" t="n">
         <v>2.75</v>
       </c>
       <c r="L3" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="M3" t="n">
         <v>1.03</v>
@@ -962,7 +962,7 @@
         <v>1.53</v>
       </c>
       <c r="R3" t="n">
-        <v>2.5</v>
+        <v>2.32</v>
       </c>
       <c r="S3" t="n">
         <v>1.25</v>
@@ -971,13 +971,13 @@
         <v>3.75</v>
       </c>
       <c r="U3" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="V3" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="W3" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X3" t="n">
         <v>6.5</v>
@@ -1004,28 +1004,28 @@
         <v>26</v>
       </c>
       <c r="AF3" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG3" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AH3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AJ3" t="n">
         <v>26</v>
       </c>
-      <c r="AI3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>29</v>
-      </c>
       <c r="AK3" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AL3" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AM3" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AN3" t="n">
         <v>3.25</v>
@@ -1052,19 +1052,19 @@
         <v>10</v>
       </c>
       <c r="AV3" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW3" t="n">
         <v>11</v>
       </c>
       <c r="AX3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AY3" t="n">
         <v>41</v>
       </c>
       <c r="AZ3" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BA3" t="n">
         <v>201</v>
@@ -1073,7 +1073,7 @@
         <v>351</v>
       </c>
       <c r="BC3" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD3" t="n">
         <v>151</v>
@@ -1114,7 +1114,7 @@
         <v>3</v>
       </c>
       <c r="H4" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I4" t="n">
         <v>2.25</v>
@@ -1123,7 +1123,7 @@
         <v>3.4</v>
       </c>
       <c r="K4" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L4" t="n">
         <v>2.75</v>
@@ -1132,37 +1132,37 @@
         <v>1.03</v>
       </c>
       <c r="N4" t="n">
+        <v>17</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="R4" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T4" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W4" t="n">
         <v>15</v>
       </c>
-      <c r="O4" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P4" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R4" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T4" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="V4" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="W4" t="n">
-        <v>13</v>
-      </c>
       <c r="X4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y4" t="n">
         <v>11</v>
@@ -1174,10 +1174,10 @@
         <v>21</v>
       </c>
       <c r="AB4" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD4" t="n">
         <v>7</v>
@@ -1192,34 +1192,34 @@
         <v>101</v>
       </c>
       <c r="AH4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI4" t="n">
         <v>13</v>
       </c>
       <c r="AJ4" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK4" t="n">
         <v>21</v>
       </c>
       <c r="AL4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM4" t="n">
         <v>21</v>
       </c>
       <c r="AN4" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AO4" t="n">
         <v>15</v>
       </c>
       <c r="AP4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ4" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR4" t="n">
         <v>51</v>
@@ -1228,7 +1228,7 @@
         <v>101</v>
       </c>
       <c r="AT4" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AU4" t="n">
         <v>7</v>
@@ -1237,25 +1237,25 @@
         <v>41</v>
       </c>
       <c r="AW4" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AX4" t="n">
         <v>12</v>
       </c>
       <c r="AY4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AZ4" t="n">
         <v>41</v>
       </c>
       <c r="BA4" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BB4" t="n">
         <v>101</v>
       </c>
       <c r="BC4" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BD4" t="n">
         <v>151</v>
@@ -1293,40 +1293,40 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.85</v>
+        <v>1.73</v>
       </c>
       <c r="H5" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I5" t="n">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="J5" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="K5" t="n">
         <v>2.3</v>
       </c>
       <c r="L5" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N5" t="n">
+        <v>15</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P5" t="n">
         <v>4.33</v>
       </c>
-      <c r="M5" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N5" t="n">
-        <v>13</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P5" t="n">
-        <v>4</v>
-      </c>
       <c r="Q5" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="R5" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="S5" t="n">
         <v>1.33</v>
@@ -1344,16 +1344,16 @@
         <v>8.5</v>
       </c>
       <c r="X5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Y5" t="n">
         <v>8.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB5" t="n">
         <v>23</v>
@@ -1362,10 +1362,10 @@
         <v>13</v>
       </c>
       <c r="AD5" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF5" t="n">
         <v>41</v>
@@ -1374,19 +1374,19 @@
         <v>151</v>
       </c>
       <c r="AH5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK5" t="n">
         <v>41</v>
       </c>
       <c r="AL5" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM5" t="n">
         <v>34</v>
@@ -1395,16 +1395,16 @@
         <v>4</v>
       </c>
       <c r="AO5" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AP5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ5" t="n">
         <v>29</v>
       </c>
       <c r="AR5" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS5" t="n">
         <v>101</v>
@@ -1419,10 +1419,10 @@
         <v>51</v>
       </c>
       <c r="AW5" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AX5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY5" t="n">
         <v>26</v>
@@ -1475,13 +1475,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="H6" t="n">
         <v>3.4</v>
       </c>
       <c r="I6" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="J6" t="n">
         <v>3</v>
@@ -1517,10 +1517,10 @@
         <v>3.25</v>
       </c>
       <c r="U6" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="V6" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W6" t="n">
         <v>10</v>
@@ -1538,10 +1538,10 @@
         <v>19</v>
       </c>
       <c r="AB6" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD6" t="n">
         <v>6.5</v>
@@ -1562,7 +1562,7 @@
         <v>15</v>
       </c>
       <c r="AJ6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK6" t="n">
         <v>29</v>
@@ -1574,7 +1574,7 @@
         <v>26</v>
       </c>
       <c r="AN6" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO6" t="n">
         <v>13</v>
@@ -1598,7 +1598,7 @@
         <v>7.5</v>
       </c>
       <c r="AV6" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW6" t="n">
         <v>5</v>
@@ -1657,10 +1657,10 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="H7" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="I7" t="n">
         <v>15</v>
@@ -1669,10 +1669,10 @@
         <v>1.5</v>
       </c>
       <c r="K7" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="L7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M7" t="n">
         <v>1.01</v>
@@ -1714,7 +1714,7 @@
         <v>11</v>
       </c>
       <c r="Z7" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA7" t="n">
         <v>11</v>
@@ -1723,13 +1723,13 @@
         <v>29</v>
       </c>
       <c r="AC7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD7" t="n">
         <v>15</v>
       </c>
       <c r="AE7" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AF7" t="n">
         <v>81</v>
@@ -1744,28 +1744,28 @@
         <v>67</v>
       </c>
       <c r="AJ7" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AK7" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AL7" t="n">
         <v>101</v>
       </c>
       <c r="AM7" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AN7" t="n">
         <v>3.25</v>
       </c>
       <c r="AO7" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AP7" t="n">
         <v>17</v>
       </c>
       <c r="AQ7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR7" t="n">
         <v>34</v>
@@ -1792,10 +1792,10 @@
         <v>51</v>
       </c>
       <c r="AZ7" t="n">
+        <v>351</v>
+      </c>
+      <c r="BA7" t="n">
         <v>301</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>251</v>
       </c>
       <c r="BB7" t="n">
         <v>351</v>
@@ -1842,52 +1842,52 @@
         <v>10</v>
       </c>
       <c r="H8" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="I8" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="J8" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="K8" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L8" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="M8" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="O8" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="P8" t="n">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="R8" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="S8" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="T8" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U8" t="n">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="V8" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="W8" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X8" t="n">
         <v>41</v>
@@ -1902,76 +1902,76 @@
         <v>81</v>
       </c>
       <c r="AB8" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AC8" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="AD8" t="n">
         <v>8.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF8" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AG8" t="n">
         <v>201</v>
       </c>
       <c r="AH8" t="n">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="AI8" t="n">
         <v>5.5</v>
       </c>
       <c r="AJ8" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK8" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AL8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM8" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN8" t="n">
         <v>9.5</v>
       </c>
       <c r="AO8" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AP8" t="n">
         <v>51</v>
       </c>
       <c r="AQ8" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AR8" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="AS8" t="n">
         <v>351</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="AU8" t="n">
         <v>11</v>
       </c>
       <c r="AV8" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AW8" t="n">
         <v>3.1</v>
       </c>
       <c r="AX8" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AY8" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AZ8" t="n">
         <v>21</v>
@@ -1980,7 +1980,7 @@
         <v>51</v>
       </c>
       <c r="BB8" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC8" t="n">
         <v>51</v>
@@ -2203,19 +2203,19 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="H10" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I10" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="J10" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="K10" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L10" t="n">
         <v>4</v>
@@ -2233,10 +2233,10 @@
         <v>5.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R10" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="S10" t="n">
         <v>1.29</v>
@@ -2245,22 +2245,22 @@
         <v>3.5</v>
       </c>
       <c r="U10" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="V10" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="W10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X10" t="n">
         <v>11</v>
       </c>
       <c r="Y10" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z10" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA10" t="n">
         <v>13</v>
@@ -2287,31 +2287,31 @@
         <v>17</v>
       </c>
       <c r="AI10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL10" t="n">
         <v>26</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>29</v>
       </c>
       <c r="AM10" t="n">
         <v>29</v>
       </c>
       <c r="AN10" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO10" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AP10" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AQ10" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR10" t="n">
         <v>41</v>
@@ -2332,10 +2332,10 @@
         <v>6</v>
       </c>
       <c r="AX10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY10" t="n">
         <v>21</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>23</v>
       </c>
       <c r="AZ10" t="n">
         <v>51</v>
@@ -2385,13 +2385,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="H11" t="n">
         <v>4.33</v>
       </c>
       <c r="I11" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J11" t="n">
         <v>2.2</v>
@@ -2403,10 +2403,10 @@
         <v>5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O11" t="n">
         <v>1.22</v>
@@ -2442,7 +2442,7 @@
         <v>8.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA11" t="n">
         <v>13</v>
@@ -2451,13 +2451,13 @@
         <v>23</v>
       </c>
       <c r="AC11" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD11" t="n">
         <v>8</v>
       </c>
       <c r="AE11" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF11" t="n">
         <v>51</v>
@@ -2481,19 +2481,19 @@
         <v>34</v>
       </c>
       <c r="AM11" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN11" t="n">
         <v>3.75</v>
       </c>
       <c r="AO11" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AP11" t="n">
         <v>17</v>
       </c>
       <c r="AQ11" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AR11" t="n">
         <v>41</v>
@@ -2511,10 +2511,10 @@
         <v>51</v>
       </c>
       <c r="AW11" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AX11" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AY11" t="n">
         <v>29</v>
@@ -2526,7 +2526,7 @@
         <v>101</v>
       </c>
       <c r="BB11" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC11" t="n">
         <v>126</v>
@@ -2567,28 +2567,28 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="H12" t="n">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="I12" t="n">
-        <v>9.5</v>
+        <v>15</v>
       </c>
       <c r="J12" t="n">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="K12" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="L12" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="M12" t="n">
         <v>1.08</v>
       </c>
       <c r="N12" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O12" t="n">
         <v>1.36</v>
@@ -2597,10 +2597,10 @@
         <v>3</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R12" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S12" t="n">
         <v>1.44</v>
@@ -2609,22 +2609,22 @@
         <v>2.63</v>
       </c>
       <c r="U12" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="V12" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="W12" t="n">
         <v>5</v>
       </c>
       <c r="X12" t="n">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="Y12" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="Z12" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="AA12" t="n">
         <v>15</v>
@@ -2633,79 +2633,79 @@
         <v>41</v>
       </c>
       <c r="AC12" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD12" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AE12" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AF12" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="AG12" t="n">
         <v>201</v>
       </c>
       <c r="AH12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>201</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>126</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>126</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ12" t="n">
         <v>17</v>
       </c>
-      <c r="AI12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>29</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>126</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>81</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>81</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>7</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>21</v>
-      </c>
       <c r="AR12" t="n">
         <v>51</v>
       </c>
       <c r="AS12" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AT12" t="n">
         <v>2.63</v>
       </c>
       <c r="AU12" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AV12" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AW12" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AX12" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AY12" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AZ12" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="BA12" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BB12" t="n">
         <v>501</v>
@@ -2749,151 +2749,151 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="H13" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="I13" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J13" t="n">
-        <v>2.67</v>
+        <v>2.55</v>
       </c>
       <c r="K13" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="L13" t="n">
         <v>3.55</v>
       </c>
       <c r="M13" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N13" t="n">
-        <v>10.5</v>
+        <v>12.4</v>
       </c>
       <c r="O13" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P13" t="n">
-        <v>3.82</v>
+        <v>4.15</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.62</v>
+        <v>1.55</v>
       </c>
       <c r="R13" t="n">
-        <v>2.02</v>
+        <v>2.15</v>
       </c>
       <c r="S13" t="n">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="T13" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="U13" t="n">
-        <v>1.56</v>
+        <v>1.51</v>
       </c>
       <c r="V13" t="n">
-        <v>2.36</v>
+        <v>2.48</v>
       </c>
       <c r="W13" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X13" t="n">
         <v>10.75</v>
       </c>
       <c r="Y13" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="Z13" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AA13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB13" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AC13" t="n">
-        <v>11.75</v>
+        <v>13.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>5.7</v>
+        <v>6.1</v>
       </c>
       <c r="AE13" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AF13" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AG13" t="n">
         <v>150</v>
       </c>
       <c r="AH13" t="n">
-        <v>9.5</v>
+        <v>10.75</v>
       </c>
       <c r="AI13" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="AJ13" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AK13" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AL13" t="n">
         <v>19.5</v>
       </c>
       <c r="AM13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AN13" t="n">
-        <v>4.3</v>
+        <v>4.25</v>
       </c>
       <c r="AO13" t="n">
-        <v>11</v>
+        <v>10.25</v>
       </c>
       <c r="AP13" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AQ13" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AR13" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AS13" t="n">
         <v>150</v>
       </c>
       <c r="AT13" t="n">
-        <v>2.95</v>
+        <v>3.15</v>
       </c>
       <c r="AU13" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AV13" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AW13" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="AX13" t="n">
         <v>17</v>
       </c>
       <c r="AY13" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AZ13" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="BA13" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="BB13" t="n">
         <v>200</v>
       </c>
       <c r="BC13" t="n">
-        <v>51</v>
+        <v>500</v>
       </c>
       <c r="BD13" t="n">
         <v>51</v>
@@ -2931,34 +2931,34 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="H14" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="I14" t="n">
-        <v>4.9</v>
+        <v>4.45</v>
       </c>
       <c r="J14" t="n">
         <v>2</v>
       </c>
       <c r="K14" t="n">
-        <v>2.4</v>
+        <v>2.47</v>
       </c>
       <c r="L14" t="n">
-        <v>4.75</v>
+        <v>4.35</v>
       </c>
       <c r="M14" t="n">
         <v>1.01</v>
       </c>
       <c r="N14" t="n">
-        <v>14.7</v>
+        <v>15</v>
       </c>
       <c r="O14" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="P14" t="n">
-        <v>4.7</v>
+        <v>5.15</v>
       </c>
       <c r="Q14" t="n">
         <v>1.53</v>
@@ -2967,115 +2967,115 @@
         <v>2.18</v>
       </c>
       <c r="S14" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="T14" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="U14" t="n">
-        <v>1.57</v>
+        <v>1.49</v>
       </c>
       <c r="V14" t="n">
-        <v>2.34</v>
+        <v>2.54</v>
       </c>
       <c r="W14" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="X14" t="n">
-        <v>7.6</v>
+        <v>8.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="Z14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA14" t="n">
         <v>9.25</v>
       </c>
       <c r="AB14" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AC14" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AD14" t="n">
-        <v>7.5</v>
+        <v>7.9</v>
       </c>
       <c r="AE14" t="n">
-        <v>11.5</v>
+        <v>10.75</v>
       </c>
       <c r="AF14" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="AG14" t="n">
-        <v>175</v>
+        <v>120</v>
       </c>
       <c r="AH14" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="AI14" t="n">
+        <v>27</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>60</v>
+      </c>
+      <c r="AL14" t="n">
         <v>28</v>
       </c>
-      <c r="AJ14" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>65</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>32</v>
-      </c>
       <c r="AM14" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AN14" t="n">
-        <v>3.65</v>
+        <v>3.85</v>
       </c>
       <c r="AO14" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="AP14" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AQ14" t="n">
         <v>20</v>
       </c>
       <c r="AR14" t="n">
+        <v>35</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>110</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AV14" t="n">
         <v>40</v>
       </c>
-      <c r="AS14" t="n">
-        <v>150</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="AU14" t="n">
+      <c r="AW14" t="n">
         <v>6.9</v>
       </c>
-      <c r="AV14" t="n">
-        <v>45</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>7</v>
-      </c>
       <c r="AX14" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AY14" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AZ14" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="BA14" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="BB14" t="n">
-        <v>250</v>
+        <v>175</v>
       </c>
       <c r="BC14" t="n">
-        <v>51</v>
+        <v>500</v>
       </c>
       <c r="BD14" t="n">
         <v>51</v>
@@ -3113,10 +3113,10 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="H15" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I15" t="n">
         <v>2.7</v>
@@ -3125,40 +3125,40 @@
         <v>3.1</v>
       </c>
       <c r="K15" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L15" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M15" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N15" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O15" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P15" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="R15" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S15" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T15" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U15" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="V15" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W15" t="n">
         <v>10</v>
@@ -3194,7 +3194,7 @@
         <v>151</v>
       </c>
       <c r="AH15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI15" t="n">
         <v>15</v>
@@ -3227,16 +3227,16 @@
         <v>51</v>
       </c>
       <c r="AS15" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT15" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU15" t="n">
         <v>7.5</v>
       </c>
       <c r="AV15" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW15" t="n">
         <v>4.75</v>
@@ -3251,10 +3251,10 @@
         <v>41</v>
       </c>
       <c r="BA15" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB15" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC15" t="n">
         <v>81</v>
@@ -4026,16 +4026,16 @@
         <v>1.42</v>
       </c>
       <c r="H20" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="I20" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="J20" t="n">
         <v>1.82</v>
       </c>
       <c r="K20" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="L20" t="n">
         <v>5.3</v>
@@ -4053,7 +4053,7 @@
         <v>5.5</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="R20" t="n">
         <v>2.87</v>
@@ -4071,16 +4071,16 @@
         <v>2.35</v>
       </c>
       <c r="W20" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="X20" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AA20" t="n">
         <v>10.25</v>
@@ -4092,22 +4092,22 @@
         <v>10.25</v>
       </c>
       <c r="AD20" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AE20" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AF20" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AG20" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AH20" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AI20" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AJ20" t="n">
         <v>19</v>
@@ -4119,7 +4119,7 @@
         <v>50</v>
       </c>
       <c r="AM20" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AN20" t="n">
         <v>3.8</v>
@@ -4128,7 +4128,7 @@
         <v>6.4</v>
       </c>
       <c r="AP20" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AQ20" t="n">
         <v>15.5</v>
@@ -4143,25 +4143,25 @@
         <v>3.95</v>
       </c>
       <c r="AU20" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AV20" t="n">
         <v>40</v>
       </c>
       <c r="AW20" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AX20" t="n">
         <v>29</v>
       </c>
       <c r="AY20" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AZ20" t="n">
         <v>150</v>
       </c>
       <c r="BA20" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="BB20" t="n">
         <v>200</v>
@@ -4208,7 +4208,7 @@
         <v>1.55</v>
       </c>
       <c r="H21" t="n">
-        <v>4.25</v>
+        <v>4.35</v>
       </c>
       <c r="I21" t="n">
         <v>4.9</v>
@@ -4217,13 +4217,13 @@
         <v>1.98</v>
       </c>
       <c r="K21" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="L21" t="n">
-        <v>4.75</v>
+        <v>4.65</v>
       </c>
       <c r="M21" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N21" t="n">
         <v>9.75</v>
@@ -4241,40 +4241,40 @@
         <v>2.67</v>
       </c>
       <c r="S21" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="T21" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="U21" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="V21" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="W21" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="X21" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Y21" t="n">
         <v>8.25</v>
       </c>
       <c r="Z21" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AA21" t="n">
         <v>10.75</v>
       </c>
       <c r="AB21" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AC21" t="n">
         <v>9.75</v>
       </c>
       <c r="AD21" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AE21" t="n">
         <v>13</v>
@@ -4283,13 +4283,13 @@
         <v>40</v>
       </c>
       <c r="AG21" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AH21" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI21" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AJ21" t="n">
         <v>16</v>
@@ -4304,13 +4304,13 @@
         <v>32</v>
       </c>
       <c r="AN21" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="AO21" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AP21" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AQ21" t="n">
         <v>19</v>
@@ -4319,31 +4319,31 @@
         <v>32</v>
       </c>
       <c r="AS21" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AT21" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="AU21" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AV21" t="n">
         <v>40</v>
       </c>
       <c r="AW21" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AX21" t="n">
         <v>25</v>
       </c>
       <c r="AY21" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ21" t="n">
         <v>120</v>
       </c>
       <c r="BA21" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="BB21" t="n">
         <v>200</v>
@@ -4387,22 +4387,22 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="H22" t="n">
         <v>3.3</v>
       </c>
       <c r="I22" t="n">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="J22" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="K22" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L22" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="M22" t="n">
         <v>1.05</v>
@@ -4417,10 +4417,10 @@
         <v>3.5</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R22" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S22" t="n">
         <v>1.4</v>
@@ -4435,97 +4435,97 @@
         <v>2</v>
       </c>
       <c r="W22" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X22" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="Y22" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z22" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AA22" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AB22" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD22" t="n">
         <v>6.5</v>
       </c>
       <c r="AE22" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF22" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG22" t="n">
         <v>201</v>
       </c>
       <c r="AH22" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ22" t="n">
         <v>9</v>
       </c>
-      <c r="AI22" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>10</v>
-      </c>
       <c r="AK22" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL22" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AM22" t="n">
         <v>29</v>
       </c>
       <c r="AN22" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AO22" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AP22" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ22" t="n">
         <v>51</v>
       </c>
       <c r="AR22" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS22" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT22" t="n">
         <v>2.75</v>
       </c>
       <c r="AU22" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV22" t="n">
         <v>51</v>
       </c>
       <c r="AW22" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AX22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY22" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ22" t="n">
         <v>41</v>
       </c>
       <c r="BA22" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB22" t="n">
         <v>151</v>
@@ -4569,22 +4569,22 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="H23" t="n">
         <v>3</v>
       </c>
       <c r="I23" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="J23" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K23" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="L23" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="M23" t="n">
         <v>1.02</v>
@@ -4602,13 +4602,13 @@
         <v>2.05</v>
       </c>
       <c r="R23" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S23" t="n">
         <v>1.4</v>
       </c>
       <c r="T23" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="U23" t="n">
         <v>1.78</v>
@@ -4617,40 +4617,40 @@
         <v>1.83</v>
       </c>
       <c r="W23" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="X23" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="Y23" t="n">
         <v>9.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AA23" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AB23" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AC23" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AD23" t="n">
         <v>5.8</v>
       </c>
       <c r="AE23" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AF23" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AG23" t="n">
         <v>600</v>
       </c>
       <c r="AH23" t="n">
-        <v>8.25</v>
+        <v>7.9</v>
       </c>
       <c r="AI23" t="n">
         <v>14</v>
@@ -4662,31 +4662,31 @@
         <v>35</v>
       </c>
       <c r="AL23" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AM23" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AN23" t="n">
         <v>4.35</v>
       </c>
       <c r="AO23" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AP23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AQ23" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AR23" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AS23" t="n">
         <v>250</v>
       </c>
       <c r="AT23" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AU23" t="n">
         <v>6.7</v>
@@ -4695,7 +4695,7 @@
         <v>60</v>
       </c>
       <c r="AW23" t="n">
-        <v>4.65</v>
+        <v>4.7</v>
       </c>
       <c r="AX23" t="n">
         <v>15</v>
@@ -4710,7 +4710,7 @@
         <v>100</v>
       </c>
       <c r="BB23" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BC23" t="n">
         <v>51</v>
@@ -4775,10 +4775,10 @@
         <v>5.5</v>
       </c>
       <c r="O24" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="P24" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Q24" t="n">
         <v>3.1</v>
@@ -4951,16 +4951,16 @@
         <v>2</v>
       </c>
       <c r="M25" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N25" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O25" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P25" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q25" t="n">
         <v>2.1</v>
@@ -5115,22 +5115,22 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="H26" t="n">
         <v>5.25</v>
       </c>
       <c r="I26" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J26" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="K26" t="n">
         <v>2.5</v>
       </c>
       <c r="L26" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M26" t="n">
         <v>1.05</v>
@@ -5139,40 +5139,40 @@
         <v>11</v>
       </c>
       <c r="O26" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P26" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.75</v>
+        <v>1.93</v>
       </c>
       <c r="R26" t="n">
-        <v>2.05</v>
+        <v>1.88</v>
       </c>
       <c r="S26" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T26" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U26" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="V26" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="W26" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X26" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Y26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z26" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA26" t="n">
         <v>13</v>
@@ -5181,73 +5181,73 @@
         <v>41</v>
       </c>
       <c r="AC26" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AD26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE26" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AF26" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="AG26" t="n">
         <v>101</v>
       </c>
       <c r="AH26" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI26" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AJ26" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AK26" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="AL26" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="AM26" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="AN26" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="AO26" t="n">
         <v>5.5</v>
       </c>
       <c r="AP26" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ26" t="n">
         <v>15</v>
       </c>
       <c r="AR26" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS26" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="AT26" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU26" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AV26" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AW26" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AX26" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AY26" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AZ26" t="n">
         <v>351</v>
@@ -5479,16 +5479,16 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="H28" t="n">
         <v>3.6</v>
       </c>
       <c r="I28" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="J28" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K28" t="n">
         <v>2.38</v>
@@ -5527,7 +5527,7 @@
         <v>2.5</v>
       </c>
       <c r="W28" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X28" t="n">
         <v>17</v>
@@ -5539,7 +5539,7 @@
         <v>29</v>
       </c>
       <c r="AA28" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB28" t="n">
         <v>23</v>
@@ -5560,10 +5560,10 @@
         <v>101</v>
       </c>
       <c r="AH28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI28" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ28" t="n">
         <v>9.5</v>
@@ -5584,7 +5584,7 @@
         <v>15</v>
       </c>
       <c r="AP28" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ28" t="n">
         <v>41</v>
@@ -5661,22 +5661,22 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="H29" t="n">
         <v>3.75</v>
       </c>
       <c r="I29" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="J29" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K29" t="n">
         <v>2.38</v>
       </c>
       <c r="L29" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="M29" t="n">
         <v>1.03</v>
@@ -5715,13 +5715,13 @@
         <v>19</v>
       </c>
       <c r="Y29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z29" t="n">
         <v>34</v>
       </c>
       <c r="AA29" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB29" t="n">
         <v>26</v>
@@ -5736,13 +5736,13 @@
         <v>12</v>
       </c>
       <c r="AF29" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG29" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AH29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI29" t="n">
         <v>12</v>
@@ -5751,7 +5751,7 @@
         <v>9</v>
       </c>
       <c r="AK29" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL29" t="n">
         <v>15</v>
@@ -5775,7 +5775,7 @@
         <v>51</v>
       </c>
       <c r="AS29" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT29" t="n">
         <v>3.5</v>
@@ -5787,7 +5787,7 @@
         <v>41</v>
       </c>
       <c r="AW29" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AX29" t="n">
         <v>11</v>
@@ -5843,115 +5843,115 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.42</v>
+        <v>1.3</v>
       </c>
       <c r="H30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I30" t="n">
-        <v>6.25</v>
+        <v>8</v>
       </c>
       <c r="J30" t="n">
-        <v>1.91</v>
+        <v>1.73</v>
       </c>
       <c r="K30" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="L30" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M30" t="n">
         <v>1.02</v>
       </c>
       <c r="N30" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O30" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P30" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.48</v>
+        <v>1.4</v>
       </c>
       <c r="R30" t="n">
-        <v>2.6</v>
+        <v>2.88</v>
       </c>
       <c r="S30" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="T30" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U30" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="V30" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W30" t="n">
         <v>10</v>
       </c>
       <c r="X30" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Y30" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z30" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AA30" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB30" t="n">
         <v>21</v>
       </c>
       <c r="AC30" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD30" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AE30" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AF30" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG30" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH30" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ30" t="n">
         <v>21</v>
       </c>
-      <c r="AI30" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>19</v>
-      </c>
       <c r="AK30" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AL30" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM30" t="n">
         <v>41</v>
       </c>
       <c r="AN30" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO30" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AP30" t="n">
         <v>15</v>
       </c>
       <c r="AQ30" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AR30" t="n">
         <v>34</v>
@@ -5960,31 +5960,31 @@
         <v>81</v>
       </c>
       <c r="AT30" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AU30" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV30" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW30" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AX30" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AY30" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ30" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BA30" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB30" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC30" t="n">
         <v>351</v>
@@ -6025,40 +6025,40 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="H31" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I31" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="J31" t="n">
         <v>3.5</v>
       </c>
       <c r="K31" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L31" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="M31" t="n">
         <v>1.04</v>
       </c>
       <c r="N31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O31" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P31" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="R31" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S31" t="n">
         <v>1.36</v>
@@ -6076,13 +6076,13 @@
         <v>11</v>
       </c>
       <c r="X31" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y31" t="n">
         <v>11</v>
       </c>
       <c r="Z31" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AA31" t="n">
         <v>23</v>
@@ -6094,7 +6094,7 @@
         <v>12</v>
       </c>
       <c r="AD31" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE31" t="n">
         <v>13</v>
@@ -6112,7 +6112,7 @@
         <v>12</v>
       </c>
       <c r="AJ31" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK31" t="n">
         <v>21</v>
@@ -6121,13 +6121,13 @@
         <v>17</v>
       </c>
       <c r="AM31" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN31" t="n">
         <v>5</v>
       </c>
       <c r="AO31" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP31" t="n">
         <v>23</v>
@@ -6154,7 +6154,7 @@
         <v>4.5</v>
       </c>
       <c r="AX31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY31" t="n">
         <v>21</v>
@@ -6207,79 +6207,79 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="H32" t="n">
         <v>3.4</v>
       </c>
       <c r="I32" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="J32" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="K32" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L32" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="M32" t="n">
         <v>1.04</v>
       </c>
       <c r="N32" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O32" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P32" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="R32" t="n">
-        <v>2.08</v>
+        <v>2.03</v>
       </c>
       <c r="S32" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T32" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U32" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="V32" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="W32" t="n">
         <v>11</v>
       </c>
       <c r="X32" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y32" t="n">
         <v>11</v>
       </c>
       <c r="Z32" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB32" t="n">
         <v>29</v>
       </c>
-      <c r="AA32" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>26</v>
-      </c>
       <c r="AC32" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD32" t="n">
         <v>6.5</v>
       </c>
       <c r="AE32" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF32" t="n">
         <v>41</v>
@@ -6288,19 +6288,19 @@
         <v>151</v>
       </c>
       <c r="AH32" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI32" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ32" t="n">
         <v>9.5</v>
       </c>
       <c r="AK32" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL32" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AM32" t="n">
         <v>23</v>
@@ -6309,34 +6309,34 @@
         <v>5</v>
       </c>
       <c r="AO32" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP32" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ32" t="n">
         <v>51</v>
       </c>
       <c r="AR32" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS32" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT32" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU32" t="n">
         <v>7.5</v>
       </c>
       <c r="AV32" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW32" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AX32" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY32" t="n">
         <v>21</v>
@@ -6389,22 +6389,22 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="H33" t="n">
         <v>4</v>
       </c>
       <c r="I33" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="J33" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K33" t="n">
         <v>2.4</v>
       </c>
       <c r="L33" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M33" t="n">
         <v>1.03</v>
@@ -6431,10 +6431,10 @@
         <v>3.5</v>
       </c>
       <c r="U33" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="V33" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="W33" t="n">
         <v>11</v>
@@ -6455,7 +6455,7 @@
         <v>19</v>
       </c>
       <c r="AC33" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD33" t="n">
         <v>8</v>
@@ -6467,7 +6467,7 @@
         <v>34</v>
       </c>
       <c r="AG33" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AH33" t="n">
         <v>15</v>
@@ -6476,13 +6476,13 @@
         <v>21</v>
       </c>
       <c r="AJ33" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK33" t="n">
         <v>41</v>
       </c>
       <c r="AL33" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM33" t="n">
         <v>26</v>
@@ -6491,7 +6491,7 @@
         <v>4.33</v>
       </c>
       <c r="AO33" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AP33" t="n">
         <v>17</v>
@@ -6571,22 +6571,22 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.75</v>
+        <v>2.38</v>
       </c>
       <c r="H34" t="n">
         <v>3.4</v>
       </c>
       <c r="I34" t="n">
-        <v>2.45</v>
+        <v>2.8</v>
       </c>
       <c r="J34" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="K34" t="n">
         <v>2.25</v>
       </c>
       <c r="L34" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M34" t="n">
         <v>1.04</v>
@@ -6619,22 +6619,22 @@
         <v>2.2</v>
       </c>
       <c r="W34" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="X34" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y34" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="Z34" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AA34" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB34" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC34" t="n">
         <v>12</v>
@@ -6652,34 +6652,34 @@
         <v>151</v>
       </c>
       <c r="AH34" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI34" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO34" t="n">
         <v>13</v>
-      </c>
-      <c r="AJ34" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK34" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL34" t="n">
-        <v>19</v>
-      </c>
-      <c r="AM34" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN34" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO34" t="n">
-        <v>15</v>
       </c>
       <c r="AP34" t="n">
         <v>21</v>
       </c>
       <c r="AQ34" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR34" t="n">
         <v>51</v>
@@ -6697,19 +6697,19 @@
         <v>41</v>
       </c>
       <c r="AW34" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="AX34" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AY34" t="n">
         <v>21</v>
       </c>
       <c r="AZ34" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA34" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB34" t="n">
         <v>126</v>
@@ -6753,10 +6753,10 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="H35" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I35" t="n">
         <v>4.75</v>
@@ -6789,10 +6789,10 @@
         <v>2.25</v>
       </c>
       <c r="S35" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="T35" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="U35" t="n">
         <v>1.67</v>
@@ -6825,7 +6825,7 @@
         <v>8</v>
       </c>
       <c r="AE35" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF35" t="n">
         <v>41</v>
@@ -6855,13 +6855,13 @@
         <v>3.75</v>
       </c>
       <c r="AO35" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AP35" t="n">
         <v>17</v>
       </c>
       <c r="AQ35" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AR35" t="n">
         <v>41</v>
@@ -6870,7 +6870,7 @@
         <v>101</v>
       </c>
       <c r="AT35" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AU35" t="n">
         <v>7.5</v>
@@ -6879,7 +6879,7 @@
         <v>41</v>
       </c>
       <c r="AW35" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AX35" t="n">
         <v>23</v>
@@ -7079,7 +7079,7 @@
         <v>201</v>
       </c>
       <c r="BC36" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD36" t="n">
         <v>151</v>
@@ -7117,103 +7117,103 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="H37" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I37" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="J37" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K37" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L37" t="n">
         <v>3.25</v>
       </c>
-      <c r="K37" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L37" t="n">
-        <v>3.1</v>
-      </c>
       <c r="M37" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N37" t="n">
+        <v>10</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P37" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S37" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T37" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U37" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V37" t="n">
+        <v>2</v>
+      </c>
+      <c r="W37" t="n">
+        <v>9</v>
+      </c>
+      <c r="X37" t="n">
         <v>13</v>
-      </c>
-      <c r="O37" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P37" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="R37" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="S37" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T37" t="n">
-        <v>3</v>
-      </c>
-      <c r="U37" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V37" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W37" t="n">
-        <v>10</v>
-      </c>
-      <c r="X37" t="n">
-        <v>15</v>
       </c>
       <c r="Y37" t="n">
         <v>10</v>
       </c>
       <c r="Z37" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AA37" t="n">
         <v>21</v>
       </c>
       <c r="AB37" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC37" t="n">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="AD37" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE37" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF37" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG37" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="AH37" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AI37" t="n">
         <v>13</v>
       </c>
       <c r="AJ37" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AK37" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL37" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM37" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN37" t="n">
         <v>4.75</v>
@@ -7222,7 +7222,7 @@
         <v>15</v>
       </c>
       <c r="AP37" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ37" t="n">
         <v>51</v>
@@ -7234,10 +7234,10 @@
         <v>151</v>
       </c>
       <c r="AT37" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="AU37" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV37" t="n">
         <v>51</v>
@@ -7246,19 +7246,19 @@
         <v>4.5</v>
       </c>
       <c r="AX37" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AY37" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ37" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA37" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB37" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC37" t="n">
         <v>501</v>
@@ -7299,148 +7299,148 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>3.1</v>
+        <v>4.1</v>
       </c>
       <c r="H38" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="I38" t="n">
-        <v>2.22</v>
+        <v>1.82</v>
       </c>
       <c r="J38" t="n">
-        <v>3.7</v>
+        <v>4.6</v>
       </c>
       <c r="K38" t="n">
-        <v>2.02</v>
+        <v>2.07</v>
       </c>
       <c r="L38" t="n">
-        <v>2.9</v>
+        <v>2.45</v>
       </c>
       <c r="M38" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N38" t="n">
-        <v>6.2</v>
+        <v>6.5</v>
       </c>
       <c r="O38" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="P38" t="n">
-        <v>2.67</v>
+        <v>2.8</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="R38" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="S38" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="T38" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="U38" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="V38" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="W38" t="n">
-        <v>8</v>
+        <v>10.25</v>
       </c>
       <c r="X38" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="Y38" t="n">
-        <v>11.5</v>
+        <v>14</v>
       </c>
       <c r="Z38" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="AA38" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="AB38" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AC38" t="n">
-        <v>6.2</v>
+        <v>6.5</v>
       </c>
       <c r="AD38" t="n">
-        <v>6.1</v>
+        <v>6.5</v>
       </c>
       <c r="AE38" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AF38" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AG38" t="n">
         <v>900</v>
       </c>
       <c r="AH38" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="AI38" t="n">
-        <v>9.75</v>
+        <v>7.9</v>
       </c>
       <c r="AJ38" t="n">
-        <v>9.25</v>
+        <v>8.5</v>
       </c>
       <c r="AK38" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="AL38" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AM38" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AN38" t="n">
-        <v>4.9</v>
+        <v>5.9</v>
       </c>
       <c r="AO38" t="n">
-        <v>17.5</v>
+        <v>25</v>
       </c>
       <c r="AP38" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AQ38" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="AR38" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="AS38" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="AT38" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AU38" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="AV38" t="n">
         <v>80</v>
       </c>
       <c r="AW38" t="n">
-        <v>4.05</v>
+        <v>3.6</v>
       </c>
       <c r="AX38" t="n">
-        <v>12</v>
+        <v>9.25</v>
       </c>
       <c r="AY38" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AZ38" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="BA38" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="BB38" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="BC38" t="n">
         <v>51</v>
@@ -7481,22 +7481,22 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="H39" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="I39" t="n">
         <v>2.22</v>
       </c>
       <c r="J39" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K39" t="n">
         <v>2.3</v>
       </c>
       <c r="L39" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="M39" t="n">
         <v>1.03</v>
@@ -7517,103 +7517,103 @@
         <v>2.35</v>
       </c>
       <c r="S39" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="T39" t="n">
         <v>3.3</v>
       </c>
       <c r="U39" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="V39" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="W39" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="X39" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="Y39" t="n">
         <v>10.25</v>
       </c>
       <c r="Z39" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AA39" t="n">
+        <v>20</v>
+      </c>
+      <c r="AB39" t="n">
         <v>21</v>
-      </c>
-      <c r="AB39" t="n">
-        <v>23</v>
       </c>
       <c r="AC39" t="n">
         <v>9</v>
       </c>
       <c r="AD39" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AE39" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AF39" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AG39" t="n">
         <v>175</v>
       </c>
       <c r="AH39" t="n">
-        <v>12</v>
+        <v>11.25</v>
       </c>
       <c r="AI39" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AJ39" t="n">
         <v>9</v>
       </c>
       <c r="AK39" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL39" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AM39" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AN39" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="AO39" t="n">
         <v>14.5</v>
       </c>
       <c r="AP39" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AQ39" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AR39" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AS39" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AT39" t="n">
         <v>3.3</v>
       </c>
       <c r="AU39" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AV39" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AW39" t="n">
         <v>4.6</v>
       </c>
       <c r="AX39" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AY39" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AZ39" t="n">
         <v>40</v>

--- a/Jogos_da_Semana_FlashScore_2024-09-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-09-25.xlsx
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="H2" t="n">
         <v>3.8</v>
       </c>
       <c r="I2" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J2" t="n">
         <v>2.3</v>
@@ -765,22 +765,22 @@
         <v>5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O2" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P2" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="R2" t="n">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="S2" t="n">
         <v>1.4</v>
@@ -846,7 +846,7 @@
         <v>41</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO2" t="n">
         <v>9</v>
@@ -867,7 +867,7 @@
         <v>2.75</v>
       </c>
       <c r="AU2" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV2" t="n">
         <v>51</v>
@@ -929,22 +929,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="H3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="I3" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J3" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="K3" t="n">
         <v>2.75</v>
       </c>
       <c r="L3" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="M3" t="n">
         <v>1.03</v>
@@ -962,7 +962,7 @@
         <v>1.53</v>
       </c>
       <c r="R3" t="n">
-        <v>2.32</v>
+        <v>2.5</v>
       </c>
       <c r="S3" t="n">
         <v>1.25</v>
@@ -971,19 +971,19 @@
         <v>3.75</v>
       </c>
       <c r="U3" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="V3" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="W3" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X3" t="n">
         <v>6.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z3" t="n">
         <v>7.5</v>
@@ -1004,28 +1004,28 @@
         <v>26</v>
       </c>
       <c r="AF3" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>451</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>151</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>81</v>
+      </c>
+      <c r="AM3" t="n">
         <v>67</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>401</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>26</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>126</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>67</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>51</v>
       </c>
       <c r="AN3" t="n">
         <v>3.25</v>
@@ -1052,19 +1052,19 @@
         <v>10</v>
       </c>
       <c r="AV3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW3" t="n">
         <v>11</v>
       </c>
       <c r="AX3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AY3" t="n">
         <v>41</v>
       </c>
       <c r="AZ3" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BA3" t="n">
         <v>201</v>
@@ -1141,10 +1141,10 @@
         <v>5</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="R4" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="S4" t="n">
         <v>1.29</v>
@@ -1274,7 +1274,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1293,10 +1293,10 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="H5" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I5" t="n">
         <v>4.5</v>
@@ -1305,10 +1305,10 @@
         <v>2.3</v>
       </c>
       <c r="K5" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L5" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M5" t="n">
         <v>1.03</v>
@@ -1350,7 +1350,7 @@
         <v>8.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA5" t="n">
         <v>13</v>
@@ -1383,7 +1383,7 @@
         <v>15</v>
       </c>
       <c r="AK5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL5" t="n">
         <v>34</v>
@@ -1392,16 +1392,16 @@
         <v>34</v>
       </c>
       <c r="AN5" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO5" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AP5" t="n">
         <v>17</v>
       </c>
       <c r="AQ5" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR5" t="n">
         <v>41</v>
@@ -1425,10 +1425,10 @@
         <v>23</v>
       </c>
       <c r="AY5" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ5" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA5" t="n">
         <v>81</v>
@@ -1684,7 +1684,7 @@
         <v>1.07</v>
       </c>
       <c r="P7" t="n">
-        <v>5.4</v>
+        <v>5.35</v>
       </c>
       <c r="Q7" t="n">
         <v>1.4</v>
@@ -1699,10 +1699,10 @@
         <v>4</v>
       </c>
       <c r="U7" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="V7" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="W7" t="n">
         <v>9</v>
@@ -1857,10 +1857,10 @@
         <v>2</v>
       </c>
       <c r="M8" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O8" t="n">
         <v>1.4</v>
@@ -1869,10 +1869,10 @@
         <v>2.75</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R8" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S8" t="n">
         <v>1.5</v>
@@ -2045,16 +2045,16 @@
         <v>13</v>
       </c>
       <c r="O9" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P9" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="R9" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S9" t="n">
         <v>1.33</v>
@@ -2203,19 +2203,19 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="H10" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I10" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="J10" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="K10" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L10" t="n">
         <v>4</v>
@@ -2227,22 +2227,22 @@
         <v>17</v>
       </c>
       <c r="O10" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P10" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R10" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="S10" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="T10" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U10" t="n">
         <v>1.5</v>
@@ -2290,13 +2290,13 @@
         <v>23</v>
       </c>
       <c r="AJ10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK10" t="n">
         <v>41</v>
       </c>
       <c r="AL10" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM10" t="n">
         <v>29</v>
@@ -2305,13 +2305,13 @@
         <v>4.33</v>
       </c>
       <c r="AO10" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AP10" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AQ10" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR10" t="n">
         <v>41</v>
@@ -2320,7 +2320,7 @@
         <v>81</v>
       </c>
       <c r="AT10" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="AU10" t="n">
         <v>7</v>
@@ -2347,7 +2347,7 @@
         <v>126</v>
       </c>
       <c r="BC10" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BD10" t="n">
         <v>151</v>
@@ -2385,16 +2385,16 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="H11" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I11" t="n">
         <v>4.5</v>
       </c>
       <c r="J11" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="K11" t="n">
         <v>2.38</v>
@@ -2466,10 +2466,10 @@
         <v>201</v>
       </c>
       <c r="AH11" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI11" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ11" t="n">
         <v>15</v>
@@ -2567,52 +2567,52 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="H12" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="I12" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J12" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="K12" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M12" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N12" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O12" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P12" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="R12" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="S12" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T12" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U12" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V12" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="W12" t="n">
         <v>5</v>
@@ -2624,7 +2624,7 @@
         <v>11</v>
       </c>
       <c r="Z12" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA12" t="n">
         <v>15</v>
@@ -2648,28 +2648,28 @@
         <v>201</v>
       </c>
       <c r="AH12" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI12" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AJ12" t="n">
         <v>41</v>
       </c>
       <c r="AK12" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AL12" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AM12" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AN12" t="n">
         <v>2.88</v>
       </c>
       <c r="AO12" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AP12" t="n">
         <v>26</v>
@@ -2684,19 +2684,19 @@
         <v>301</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU12" t="n">
         <v>13</v>
       </c>
       <c r="AV12" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AW12" t="n">
         <v>12</v>
       </c>
       <c r="AX12" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AY12" t="n">
         <v>67</v>
@@ -2749,148 +2749,148 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H13" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I13" t="n">
         <v>3.35</v>
       </c>
-      <c r="I13" t="n">
-        <v>3.1</v>
-      </c>
       <c r="J13" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="K13" t="n">
-        <v>2.2</v>
+        <v>2.12</v>
       </c>
       <c r="L13" t="n">
-        <v>3.55</v>
+        <v>3.8</v>
       </c>
       <c r="M13" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="N13" t="n">
-        <v>12.4</v>
+        <v>11.5</v>
       </c>
       <c r="O13" t="n">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="P13" t="n">
-        <v>4.15</v>
+        <v>3.74</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.55</v>
+        <v>1.65</v>
       </c>
       <c r="R13" t="n">
-        <v>2.15</v>
+        <v>1.98</v>
       </c>
       <c r="S13" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="T13" t="n">
-        <v>3.4</v>
+        <v>3.14</v>
       </c>
       <c r="U13" t="n">
-        <v>1.51</v>
+        <v>1.59</v>
       </c>
       <c r="V13" t="n">
-        <v>2.48</v>
+        <v>2.29</v>
       </c>
       <c r="W13" t="n">
-        <v>9</v>
+        <v>7.9</v>
       </c>
       <c r="X13" t="n">
-        <v>10.75</v>
+        <v>9.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="Z13" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AA13" t="n">
         <v>12</v>
       </c>
       <c r="AB13" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>6.1</v>
+        <v>5.8</v>
       </c>
       <c r="AE13" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="AF13" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AG13" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AH13" t="n">
-        <v>10.75</v>
+        <v>9.75</v>
       </c>
       <c r="AI13" t="n">
         <v>16</v>
       </c>
       <c r="AJ13" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AK13" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AL13" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="AM13" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AN13" t="n">
-        <v>4.25</v>
+        <v>4.1</v>
       </c>
       <c r="AO13" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AP13" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AQ13" t="n">
         <v>35</v>
       </c>
       <c r="AR13" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AS13" t="n">
         <v>150</v>
       </c>
       <c r="AT13" t="n">
-        <v>3.15</v>
+        <v>2.95</v>
       </c>
       <c r="AU13" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AV13" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AW13" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="AX13" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="AY13" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="AZ13" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="BA13" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="BB13" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="BC13" t="n">
         <v>500</v>
@@ -2937,16 +2937,16 @@
         <v>4.1</v>
       </c>
       <c r="I14" t="n">
-        <v>4.45</v>
+        <v>4.55</v>
       </c>
       <c r="J14" t="n">
         <v>2</v>
       </c>
       <c r="K14" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="L14" t="n">
-        <v>4.35</v>
+        <v>4.4</v>
       </c>
       <c r="M14" t="n">
         <v>1.01</v>
@@ -2958,7 +2958,7 @@
         <v>1.08</v>
       </c>
       <c r="P14" t="n">
-        <v>5.15</v>
+        <v>5.2</v>
       </c>
       <c r="Q14" t="n">
         <v>1.53</v>
@@ -2973,10 +2973,10 @@
         <v>3.9</v>
       </c>
       <c r="U14" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="V14" t="n">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="W14" t="n">
         <v>9.5</v>
@@ -3015,16 +3015,16 @@
         <v>17.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AJ14" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AK14" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AL14" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AM14" t="n">
         <v>24</v>
@@ -3039,7 +3039,7 @@
         <v>12.5</v>
       </c>
       <c r="AQ14" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AR14" t="n">
         <v>35</v>
@@ -3048,16 +3048,16 @@
         <v>110</v>
       </c>
       <c r="AT14" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="AU14" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AV14" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AW14" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AX14" t="n">
         <v>23</v>
@@ -3075,7 +3075,7 @@
         <v>175</v>
       </c>
       <c r="BC14" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="BD14" t="n">
         <v>51</v>
@@ -3119,34 +3119,34 @@
         <v>3.25</v>
       </c>
       <c r="I15" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="J15" t="n">
         <v>3.1</v>
       </c>
       <c r="K15" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L15" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M15" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N15" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O15" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P15" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="R15" t="n">
-        <v>2.03</v>
+        <v>2.08</v>
       </c>
       <c r="S15" t="n">
         <v>1.36</v>
@@ -3227,7 +3227,7 @@
         <v>51</v>
       </c>
       <c r="AS15" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT15" t="n">
         <v>3</v>
@@ -3251,10 +3251,10 @@
         <v>41</v>
       </c>
       <c r="BA15" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB15" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BC15" t="n">
         <v>81</v>
@@ -3295,22 +3295,22 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="H16" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="I16" t="n">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="J16" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="K16" t="n">
         <v>2.38</v>
       </c>
       <c r="L16" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="M16" t="n">
         <v>1.04</v>
@@ -3331,28 +3331,28 @@
         <v>2.15</v>
       </c>
       <c r="S16" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T16" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="U16" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="V16" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W16" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X16" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Y16" t="n">
         <v>8.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA16" t="n">
         <v>13</v>
@@ -3364,7 +3364,7 @@
         <v>13</v>
       </c>
       <c r="AD16" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE16" t="n">
         <v>13</v>
@@ -3379,31 +3379,31 @@
         <v>15</v>
       </c>
       <c r="AI16" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ16" t="n">
         <v>15</v>
       </c>
       <c r="AK16" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL16" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM16" t="n">
         <v>34</v>
       </c>
       <c r="AN16" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO16" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AP16" t="n">
         <v>17</v>
       </c>
       <c r="AQ16" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR16" t="n">
         <v>41</v>
@@ -3412,25 +3412,25 @@
         <v>101</v>
       </c>
       <c r="AT16" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AU16" t="n">
         <v>7.5</v>
       </c>
       <c r="AV16" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW16" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AX16" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AY16" t="n">
         <v>26</v>
       </c>
       <c r="AZ16" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BA16" t="n">
         <v>81</v>
@@ -3659,16 +3659,16 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="H18" t="n">
         <v>4.5</v>
       </c>
       <c r="I18" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J18" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="K18" t="n">
         <v>2.5</v>
@@ -3683,16 +3683,16 @@
         <v>17</v>
       </c>
       <c r="O18" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P18" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="R18" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="S18" t="n">
         <v>1.29</v>
@@ -3710,7 +3710,7 @@
         <v>9</v>
       </c>
       <c r="X18" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Y18" t="n">
         <v>8.5</v>
@@ -3764,7 +3764,7 @@
         <v>7.5</v>
       </c>
       <c r="AP18" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AQ18" t="n">
         <v>21</v>
@@ -3779,7 +3779,7 @@
         <v>3.5</v>
       </c>
       <c r="AU18" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV18" t="n">
         <v>41</v>
@@ -4026,7 +4026,7 @@
         <v>1.42</v>
       </c>
       <c r="H20" t="n">
-        <v>4.8</v>
+        <v>4.85</v>
       </c>
       <c r="I20" t="n">
         <v>6</v>
@@ -4035,10 +4035,10 @@
         <v>1.82</v>
       </c>
       <c r="K20" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="L20" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="M20" t="n">
         <v>1.02</v>
@@ -4050,49 +4050,49 @@
         <v>1.11</v>
       </c>
       <c r="P20" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="R20" t="n">
-        <v>2.87</v>
+        <v>3</v>
       </c>
       <c r="S20" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="T20" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="U20" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="V20" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="W20" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="X20" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Y20" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="Z20" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AA20" t="n">
         <v>10.25</v>
       </c>
       <c r="AB20" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AC20" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AE20" t="n">
         <v>14.5</v>
@@ -4104,13 +4104,13 @@
         <v>200</v>
       </c>
       <c r="AH20" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AI20" t="n">
         <v>50</v>
       </c>
       <c r="AJ20" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AK20" t="n">
         <v>120</v>
@@ -4122,28 +4122,28 @@
         <v>37</v>
       </c>
       <c r="AN20" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="AO20" t="n">
         <v>6.4</v>
       </c>
       <c r="AP20" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AQ20" t="n">
         <v>15.5</v>
       </c>
       <c r="AR20" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AS20" t="n">
         <v>100</v>
       </c>
       <c r="AT20" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="AU20" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AV20" t="n">
         <v>40</v>
@@ -4155,7 +4155,7 @@
         <v>29</v>
       </c>
       <c r="AY20" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ20" t="n">
         <v>150</v>
@@ -4167,7 +4167,7 @@
         <v>200</v>
       </c>
       <c r="BC20" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="BD20" t="n">
         <v>51</v>
@@ -4205,40 +4205,40 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="H21" t="n">
-        <v>4.35</v>
+        <v>4.3</v>
       </c>
       <c r="I21" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="J21" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="K21" t="n">
         <v>2.55</v>
       </c>
       <c r="L21" t="n">
-        <v>4.65</v>
+        <v>4.55</v>
       </c>
       <c r="M21" t="n">
         <v>1.02</v>
       </c>
       <c r="N21" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="O21" t="n">
         <v>1.13</v>
       </c>
       <c r="P21" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="R21" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="S21" t="n">
         <v>1.23</v>
@@ -4247,31 +4247,31 @@
         <v>3.75</v>
       </c>
       <c r="U21" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="V21" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="W21" t="n">
         <v>11.25</v>
       </c>
       <c r="X21" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="Y21" t="n">
         <v>8.25</v>
       </c>
       <c r="Z21" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AA21" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AB21" t="n">
         <v>17</v>
       </c>
       <c r="AC21" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AD21" t="n">
         <v>9.25</v>
@@ -4280,10 +4280,10 @@
         <v>13</v>
       </c>
       <c r="AF21" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AG21" t="n">
-        <v>250</v>
+        <v>175</v>
       </c>
       <c r="AH21" t="n">
         <v>22</v>
@@ -4292,64 +4292,64 @@
         <v>37</v>
       </c>
       <c r="AJ21" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AK21" t="n">
         <v>90</v>
       </c>
       <c r="AL21" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AM21" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AN21" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="AO21" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AP21" t="n">
         <v>12.5</v>
       </c>
       <c r="AQ21" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AR21" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AS21" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AT21" t="n">
         <v>3.75</v>
       </c>
       <c r="AU21" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AV21" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AW21" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AX21" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AY21" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ21" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="BA21" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="BB21" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="BC21" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="BD21" t="n">
         <v>51</v>
@@ -4387,22 +4387,22 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="H22" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="I22" t="n">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="J22" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K22" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L22" t="n">
-        <v>2.88</v>
+        <v>2.63</v>
       </c>
       <c r="M22" t="n">
         <v>1.05</v>
@@ -4417,10 +4417,10 @@
         <v>3.5</v>
       </c>
       <c r="Q22" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="R22" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="S22" t="n">
         <v>1.4</v>
@@ -4435,19 +4435,19 @@
         <v>2</v>
       </c>
       <c r="W22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X22" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z22" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AA22" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AB22" t="n">
         <v>34</v>
@@ -4468,34 +4468,34 @@
         <v>201</v>
       </c>
       <c r="AH22" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI22" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AJ22" t="n">
         <v>9</v>
       </c>
       <c r="AK22" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO22" t="n">
         <v>21</v>
       </c>
-      <c r="AL22" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM22" t="n">
+      <c r="AP22" t="n">
         <v>29</v>
       </c>
-      <c r="AN22" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>19</v>
-      </c>
-      <c r="AP22" t="n">
-        <v>26</v>
-      </c>
       <c r="AQ22" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR22" t="n">
         <v>81</v>
@@ -4513,16 +4513,16 @@
         <v>51</v>
       </c>
       <c r="AW22" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AX22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY22" t="n">
         <v>21</v>
       </c>
       <c r="AZ22" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BA22" t="n">
         <v>51</v>
@@ -4569,19 +4569,19 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.47</v>
+        <v>2.52</v>
       </c>
       <c r="H23" t="n">
         <v>3</v>
       </c>
       <c r="I23" t="n">
-        <v>2.82</v>
+        <v>2.77</v>
       </c>
       <c r="J23" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K23" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="L23" t="n">
         <v>3.35</v>
@@ -4590,7 +4590,7 @@
         <v>1.02</v>
       </c>
       <c r="N23" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="O23" t="n">
         <v>1.36</v>
@@ -4608,7 +4608,7 @@
         <v>1.4</v>
       </c>
       <c r="T23" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="U23" t="n">
         <v>1.78</v>
@@ -4617,16 +4617,16 @@
         <v>1.83</v>
       </c>
       <c r="W23" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="X23" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Y23" t="n">
         <v>9.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AA23" t="n">
         <v>22</v>
@@ -4638,7 +4638,7 @@
         <v>8</v>
       </c>
       <c r="AD23" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="AE23" t="n">
         <v>14.5</v>
@@ -4650,16 +4650,16 @@
         <v>600</v>
       </c>
       <c r="AH23" t="n">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="AI23" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AJ23" t="n">
         <v>10.25</v>
       </c>
       <c r="AK23" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AL23" t="n">
         <v>26</v>
@@ -4668,7 +4668,7 @@
         <v>37</v>
       </c>
       <c r="AN23" t="n">
-        <v>4.35</v>
+        <v>4.4</v>
       </c>
       <c r="AO23" t="n">
         <v>13</v>
@@ -4680,34 +4680,34 @@
         <v>55</v>
       </c>
       <c r="AR23" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AS23" t="n">
         <v>250</v>
       </c>
       <c r="AT23" t="n">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="AU23" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AV23" t="n">
         <v>60</v>
       </c>
       <c r="AW23" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="AX23" t="n">
         <v>15</v>
       </c>
       <c r="AY23" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AZ23" t="n">
         <v>70</v>
       </c>
       <c r="BA23" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="BB23" t="n">
         <v>300</v>
@@ -4751,22 +4751,22 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="H24" t="n">
         <v>2.8</v>
       </c>
       <c r="I24" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="J24" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="K24" t="n">
         <v>1.83</v>
       </c>
       <c r="L24" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="M24" t="n">
         <v>1.14</v>
@@ -4808,7 +4808,7 @@
         <v>17</v>
       </c>
       <c r="Z24" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AA24" t="n">
         <v>41</v>
@@ -4841,7 +4841,7 @@
         <v>10</v>
       </c>
       <c r="AK24" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL24" t="n">
         <v>23</v>
@@ -4850,10 +4850,10 @@
         <v>41</v>
       </c>
       <c r="AN24" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AO24" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AP24" t="n">
         <v>41</v>
@@ -4874,13 +4874,13 @@
         <v>10</v>
       </c>
       <c r="AV24" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AW24" t="n">
         <v>3.75</v>
       </c>
       <c r="AX24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY24" t="n">
         <v>34</v>
@@ -5297,13 +5297,13 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H27" t="n">
         <v>4.2</v>
       </c>
       <c r="I27" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="J27" t="n">
         <v>2.5</v>
@@ -5312,25 +5312,25 @@
         <v>2.75</v>
       </c>
       <c r="L27" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M27" t="n">
         <v>1.01</v>
       </c>
       <c r="N27" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="O27" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="P27" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="R27" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="S27" t="n">
         <v>1.17</v>
@@ -5345,7 +5345,7 @@
         <v>3.5</v>
       </c>
       <c r="W27" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X27" t="n">
         <v>19</v>
@@ -5357,7 +5357,7 @@
         <v>23</v>
       </c>
       <c r="AA27" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB27" t="n">
         <v>15</v>
@@ -5366,10 +5366,10 @@
         <v>34</v>
       </c>
       <c r="AD27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF27" t="n">
         <v>21</v>
@@ -5381,16 +5381,16 @@
         <v>23</v>
       </c>
       <c r="AI27" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ27" t="n">
         <v>13</v>
       </c>
       <c r="AK27" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL27" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM27" t="n">
         <v>19</v>
@@ -5399,7 +5399,7 @@
         <v>5.5</v>
       </c>
       <c r="AO27" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP27" t="n">
         <v>13</v>
@@ -5479,13 +5479,13 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="H28" t="n">
         <v>3.6</v>
       </c>
       <c r="I28" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="J28" t="n">
         <v>3.25</v>
@@ -5569,7 +5569,7 @@
         <v>9.5</v>
       </c>
       <c r="AK28" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL28" t="n">
         <v>17</v>
@@ -5661,22 +5661,22 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="H29" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I29" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="J29" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K29" t="n">
         <v>2.38</v>
       </c>
       <c r="L29" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="M29" t="n">
         <v>1.03</v>
@@ -5715,13 +5715,13 @@
         <v>19</v>
       </c>
       <c r="Y29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z29" t="n">
         <v>34</v>
       </c>
       <c r="AA29" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB29" t="n">
         <v>26</v>
@@ -5739,7 +5739,7 @@
         <v>34</v>
       </c>
       <c r="AG29" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AH29" t="n">
         <v>11</v>
@@ -5751,7 +5751,7 @@
         <v>9</v>
       </c>
       <c r="AK29" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL29" t="n">
         <v>15</v>
@@ -5775,7 +5775,7 @@
         <v>51</v>
       </c>
       <c r="AS29" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT29" t="n">
         <v>3.5</v>
@@ -5787,7 +5787,7 @@
         <v>41</v>
       </c>
       <c r="AW29" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AX29" t="n">
         <v>11</v>
@@ -5843,13 +5843,13 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="H30" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="I30" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="J30" t="n">
         <v>1.73</v>
@@ -5900,7 +5900,7 @@
         <v>9</v>
       </c>
       <c r="Z30" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA30" t="n">
         <v>10</v>
@@ -5912,16 +5912,16 @@
         <v>21</v>
       </c>
       <c r="AD30" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE30" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF30" t="n">
         <v>51</v>
       </c>
       <c r="AG30" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH30" t="n">
         <v>23</v>
@@ -5966,13 +5966,13 @@
         <v>8.5</v>
       </c>
       <c r="AV30" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW30" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AX30" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AY30" t="n">
         <v>34</v>
@@ -5981,10 +5981,10 @@
         <v>126</v>
       </c>
       <c r="BA30" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BB30" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC30" t="n">
         <v>351</v>
@@ -6025,16 +6025,16 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="H31" t="n">
         <v>3.4</v>
       </c>
       <c r="I31" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="J31" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K31" t="n">
         <v>2.2</v>
@@ -6043,10 +6043,10 @@
         <v>3</v>
       </c>
       <c r="M31" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N31" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O31" t="n">
         <v>1.25</v>
@@ -6055,10 +6055,10 @@
         <v>3.75</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="R31" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="S31" t="n">
         <v>1.36</v>
@@ -6073,7 +6073,7 @@
         <v>2.1</v>
       </c>
       <c r="W31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X31" t="n">
         <v>15</v>
@@ -6085,13 +6085,13 @@
         <v>29</v>
       </c>
       <c r="AA31" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB31" t="n">
         <v>29</v>
       </c>
       <c r="AC31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD31" t="n">
         <v>6.5</v>
@@ -6103,7 +6103,7 @@
         <v>41</v>
       </c>
       <c r="AG31" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH31" t="n">
         <v>9</v>
@@ -6115,10 +6115,10 @@
         <v>9.5</v>
       </c>
       <c r="AK31" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL31" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM31" t="n">
         <v>26</v>
@@ -6166,7 +6166,7 @@
         <v>51</v>
       </c>
       <c r="BB31" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC31" t="n">
         <v>126</v>
@@ -6225,10 +6225,10 @@
         <v>2.88</v>
       </c>
       <c r="M32" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N32" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O32" t="n">
         <v>1.25</v>
@@ -6237,10 +6237,10 @@
         <v>3.75</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="R32" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S32" t="n">
         <v>1.36</v>
@@ -6392,10 +6392,10 @@
         <v>1.9</v>
       </c>
       <c r="H33" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I33" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J33" t="n">
         <v>2.5</v>
@@ -6404,7 +6404,7 @@
         <v>2.4</v>
       </c>
       <c r="L33" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M33" t="n">
         <v>1.03</v>
@@ -6419,10 +6419,10 @@
         <v>5</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="R33" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="S33" t="n">
         <v>1.29</v>
@@ -6431,13 +6431,13 @@
         <v>3.5</v>
       </c>
       <c r="U33" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="V33" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="W33" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X33" t="n">
         <v>11</v>
@@ -6452,10 +6452,10 @@
         <v>13</v>
       </c>
       <c r="AB33" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC33" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AD33" t="n">
         <v>8</v>
@@ -6464,10 +6464,10 @@
         <v>13</v>
       </c>
       <c r="AF33" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG33" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AH33" t="n">
         <v>15</v>
@@ -6482,10 +6482,10 @@
         <v>41</v>
       </c>
       <c r="AL33" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM33" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN33" t="n">
         <v>4.33</v>
@@ -6503,7 +6503,7 @@
         <v>41</v>
       </c>
       <c r="AS33" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AT33" t="n">
         <v>3.5</v>
@@ -6521,7 +6521,7 @@
         <v>19</v>
       </c>
       <c r="AY33" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ33" t="n">
         <v>51</v>
@@ -6571,19 +6571,19 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.38</v>
+        <v>2.45</v>
       </c>
       <c r="H34" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I34" t="n">
         <v>2.8</v>
       </c>
       <c r="J34" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K34" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L34" t="n">
         <v>3.4</v>
@@ -6592,7 +6592,7 @@
         <v>1.04</v>
       </c>
       <c r="N34" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O34" t="n">
         <v>1.22</v>
@@ -6601,25 +6601,25 @@
         <v>4</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="R34" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S34" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T34" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U34" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="V34" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W34" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X34" t="n">
         <v>13</v>
@@ -6634,16 +6634,16 @@
         <v>19</v>
       </c>
       <c r="AB34" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC34" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD34" t="n">
         <v>6.5</v>
       </c>
       <c r="AE34" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF34" t="n">
         <v>41</v>
@@ -6652,7 +6652,7 @@
         <v>151</v>
       </c>
       <c r="AH34" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI34" t="n">
         <v>15</v>
@@ -6667,7 +6667,7 @@
         <v>21</v>
       </c>
       <c r="AM34" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN34" t="n">
         <v>4.5</v>
@@ -6685,25 +6685,25 @@
         <v>51</v>
       </c>
       <c r="AS34" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT34" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU34" t="n">
         <v>7.5</v>
       </c>
       <c r="AV34" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW34" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AX34" t="n">
         <v>15</v>
       </c>
       <c r="AY34" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ34" t="n">
         <v>51</v>
@@ -6712,7 +6712,7 @@
         <v>67</v>
       </c>
       <c r="BB34" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC34" t="n">
         <v>501</v>
@@ -6965,10 +6965,10 @@
         <v>3.5</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="R36" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="S36" t="n">
         <v>1.4</v>
@@ -7117,7 +7117,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="H37" t="n">
         <v>3.2</v>
@@ -7147,10 +7147,10 @@
         <v>3.4</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="R37" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S37" t="n">
         <v>1.44</v>
@@ -7165,7 +7165,7 @@
         <v>2</v>
       </c>
       <c r="W37" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X37" t="n">
         <v>13</v>

--- a/Jogos_da_Semana_FlashScore_2024-09-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-09-25.xlsx
@@ -777,10 +777,10 @@
         <v>3.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.02</v>
+        <v>2.03</v>
       </c>
       <c r="R2" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="S2" t="n">
         <v>1.4</v>
@@ -959,10 +959,10 @@
         <v>5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R3" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="S3" t="n">
         <v>1.25</v>
@@ -971,10 +971,10 @@
         <v>3.75</v>
       </c>
       <c r="U3" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="V3" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="W3" t="n">
         <v>8</v>
@@ -992,7 +992,7 @@
         <v>11</v>
       </c>
       <c r="AB3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC3" t="n">
         <v>17</v>
@@ -1004,10 +1004,10 @@
         <v>26</v>
       </c>
       <c r="AF3" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG3" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AH3" t="n">
         <v>26</v>
@@ -1043,7 +1043,7 @@
         <v>34</v>
       </c>
       <c r="AS3" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT3" t="n">
         <v>3.75</v>
@@ -1052,7 +1052,7 @@
         <v>10</v>
       </c>
       <c r="AV3" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW3" t="n">
         <v>11</v>
@@ -1135,10 +1135,10 @@
         <v>17</v>
       </c>
       <c r="O4" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P4" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q4" t="n">
         <v>1.53</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H5" t="n">
         <v>3.9</v>
       </c>
       <c r="I5" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J5" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="K5" t="n">
         <v>2.38</v>
@@ -1311,10 +1311,10 @@
         <v>4.75</v>
       </c>
       <c r="M5" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O5" t="n">
         <v>1.2</v>
@@ -1335,16 +1335,16 @@
         <v>3.25</v>
       </c>
       <c r="U5" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="V5" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W5" t="n">
         <v>8.5</v>
       </c>
       <c r="X5" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Y5" t="n">
         <v>8.5</v>
@@ -1371,13 +1371,13 @@
         <v>41</v>
       </c>
       <c r="AG5" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH5" t="n">
         <v>15</v>
       </c>
       <c r="AI5" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ5" t="n">
         <v>15</v>
@@ -1413,7 +1413,7 @@
         <v>3.25</v>
       </c>
       <c r="AU5" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV5" t="n">
         <v>51</v>
@@ -1657,52 +1657,52 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J7" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="K7" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="L7" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M7" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N7" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="O7" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="P7" t="n">
-        <v>5.35</v>
+        <v>5</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="R7" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="S7" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="T7" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="U7" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="V7" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="W7" t="n">
         <v>9</v>
@@ -1711,10 +1711,10 @@
         <v>6.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z7" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AA7" t="n">
         <v>11</v>
@@ -1723,79 +1723,79 @@
         <v>29</v>
       </c>
       <c r="AC7" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AD7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE7" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AF7" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG7" t="n">
         <v>351</v>
       </c>
       <c r="AH7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AJ7" t="n">
         <v>34</v>
       </c>
-      <c r="AI7" t="n">
+      <c r="AK7" t="n">
+        <v>151</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>81</v>
+      </c>
+      <c r="AM7" t="n">
         <v>67</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>251</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>101</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>81</v>
       </c>
       <c r="AN7" t="n">
         <v>3.25</v>
       </c>
       <c r="AO7" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AP7" t="n">
         <v>17</v>
       </c>
       <c r="AQ7" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AR7" t="n">
         <v>34</v>
       </c>
       <c r="AS7" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT7" t="n">
         <v>4</v>
       </c>
       <c r="AU7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV7" t="n">
         <v>67</v>
       </c>
       <c r="AW7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AX7" t="n">
         <v>51</v>
       </c>
       <c r="AY7" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AZ7" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="BA7" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BB7" t="n">
         <v>351</v>
@@ -1839,16 +1839,16 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I8" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="J8" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="K8" t="n">
         <v>2.1</v>
@@ -1887,46 +1887,46 @@
         <v>1.44</v>
       </c>
       <c r="W8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X8" t="n">
         <v>41</v>
       </c>
       <c r="Y8" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z8" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AA8" t="n">
         <v>81</v>
       </c>
       <c r="AB8" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AC8" t="n">
         <v>7</v>
       </c>
       <c r="AD8" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE8" t="n">
         <v>29</v>
       </c>
       <c r="AF8" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AG8" t="n">
         <v>201</v>
       </c>
       <c r="AH8" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AI8" t="n">
         <v>5.5</v>
       </c>
       <c r="AJ8" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AK8" t="n">
         <v>8.5</v>
@@ -1938,19 +1938,19 @@
         <v>41</v>
       </c>
       <c r="AN8" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AO8" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AP8" t="n">
         <v>51</v>
       </c>
       <c r="AQ8" t="n">
+        <v>251</v>
+      </c>
+      <c r="AR8" t="n">
         <v>301</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>351</v>
       </c>
       <c r="AS8" t="n">
         <v>351</v>
@@ -1962,7 +1962,7 @@
         <v>11</v>
       </c>
       <c r="AV8" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AW8" t="n">
         <v>3.1</v>
@@ -1971,10 +1971,10 @@
         <v>7</v>
       </c>
       <c r="AY8" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BA8" t="n">
         <v>51</v>
@@ -2045,16 +2045,16 @@
         <v>13</v>
       </c>
       <c r="O9" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P9" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="R9" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S9" t="n">
         <v>1.33</v>
@@ -2203,19 +2203,19 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="H10" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I10" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J10" t="n">
         <v>2.38</v>
       </c>
       <c r="K10" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L10" t="n">
         <v>4</v>
@@ -2224,7 +2224,7 @@
         <v>1.03</v>
       </c>
       <c r="N10" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O10" t="n">
         <v>1.17</v>
@@ -2233,31 +2233,31 @@
         <v>5</v>
       </c>
       <c r="Q10" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R10" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T10" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U10" t="n">
         <v>1.53</v>
       </c>
-      <c r="R10" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="T10" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.5</v>
-      </c>
       <c r="V10" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="W10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X10" t="n">
         <v>11</v>
       </c>
       <c r="Y10" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z10" t="n">
         <v>17</v>
@@ -2266,10 +2266,10 @@
         <v>13</v>
       </c>
       <c r="AB10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC10" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD10" t="n">
         <v>7.5</v>
@@ -2281,7 +2281,7 @@
         <v>34</v>
       </c>
       <c r="AG10" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AH10" t="n">
         <v>17</v>
@@ -2290,7 +2290,7 @@
         <v>23</v>
       </c>
       <c r="AJ10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK10" t="n">
         <v>41</v>
@@ -2302,28 +2302,28 @@
         <v>29</v>
       </c>
       <c r="AN10" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO10" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AP10" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AQ10" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR10" t="n">
         <v>41</v>
       </c>
       <c r="AS10" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AT10" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="AU10" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AV10" t="n">
         <v>41</v>
@@ -2335,7 +2335,7 @@
         <v>19</v>
       </c>
       <c r="AY10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ10" t="n">
         <v>51</v>
@@ -2347,7 +2347,7 @@
         <v>126</v>
       </c>
       <c r="BC10" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BD10" t="n">
         <v>151</v>
@@ -2403,10 +2403,10 @@
         <v>5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N11" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O11" t="n">
         <v>1.22</v>
@@ -2573,16 +2573,16 @@
         <v>5</v>
       </c>
       <c r="I12" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J12" t="n">
         <v>1.73</v>
       </c>
       <c r="K12" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M12" t="n">
         <v>1.06</v>
@@ -2609,10 +2609,10 @@
         <v>2.75</v>
       </c>
       <c r="U12" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V12" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="W12" t="n">
         <v>5</v>
@@ -2639,7 +2639,7 @@
         <v>11</v>
       </c>
       <c r="AE12" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AF12" t="n">
         <v>151</v>
@@ -2651,7 +2651,7 @@
         <v>23</v>
       </c>
       <c r="AI12" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AJ12" t="n">
         <v>41</v>
@@ -2669,7 +2669,7 @@
         <v>2.88</v>
       </c>
       <c r="AO12" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AP12" t="n">
         <v>26</v>
@@ -2690,7 +2690,7 @@
         <v>13</v>
       </c>
       <c r="AV12" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AW12" t="n">
         <v>12</v>
@@ -2749,148 +2749,148 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="H13" t="n">
-        <v>3.25</v>
+        <v>3.7</v>
       </c>
       <c r="I13" t="n">
-        <v>3.35</v>
+        <v>4.05</v>
       </c>
       <c r="J13" t="n">
-        <v>2.52</v>
+        <v>2.2</v>
       </c>
       <c r="K13" t="n">
-        <v>2.12</v>
+        <v>2.27</v>
       </c>
       <c r="L13" t="n">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="M13" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N13" t="n">
+        <v>13</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P13" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R13" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T13" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="W13" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="X13" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AE13" t="n">
         <v>11.5</v>
       </c>
-      <c r="O13" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P13" t="n">
-        <v>3.74</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T13" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="V13" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="W13" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="X13" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>16</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>9.75</v>
-      </c>
       <c r="AF13" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="AG13" t="n">
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="AH13" t="n">
-        <v>9.75</v>
+        <v>11.75</v>
       </c>
       <c r="AI13" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AJ13" t="n">
-        <v>9.5</v>
+        <v>11.25</v>
       </c>
       <c r="AK13" t="n">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="AL13" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="AM13" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AN13" t="n">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="AO13" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AP13" t="n">
         <v>15.5</v>
       </c>
       <c r="AQ13" t="n">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="AR13" t="n">
+        <v>50</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>175</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV13" t="n">
         <v>55</v>
       </c>
-      <c r="AS13" t="n">
-        <v>150</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>45</v>
-      </c>
       <c r="AW13" t="n">
-        <v>5.5</v>
+        <v>6.1</v>
       </c>
       <c r="AX13" t="n">
-        <v>18.5</v>
+        <v>22</v>
       </c>
       <c r="AY13" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AZ13" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="BA13" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="BB13" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BC13" t="n">
         <v>500</v>
@@ -2931,34 +2931,34 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="H14" t="n">
-        <v>4.1</v>
+        <v>4.35</v>
       </c>
       <c r="I14" t="n">
-        <v>4.55</v>
+        <v>5.6</v>
       </c>
       <c r="J14" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="K14" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="L14" t="n">
-        <v>4.4</v>
+        <v>5.1</v>
       </c>
       <c r="M14" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N14" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="O14" t="n">
-        <v>1.08</v>
+        <v>1.13</v>
       </c>
       <c r="P14" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="Q14" t="n">
         <v>1.53</v>
@@ -2970,112 +2970,112 @@
         <v>1.23</v>
       </c>
       <c r="T14" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="U14" t="n">
-        <v>1.48</v>
+        <v>1.62</v>
       </c>
       <c r="V14" t="n">
-        <v>2.57</v>
+        <v>2.21</v>
       </c>
       <c r="W14" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="X14" t="n">
-        <v>8.5</v>
+        <v>7.9</v>
       </c>
       <c r="Y14" t="n">
         <v>7.2</v>
       </c>
       <c r="Z14" t="n">
-        <v>11</v>
+        <v>9.75</v>
       </c>
       <c r="AA14" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="AB14" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>7.9</v>
+        <v>8.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>10.75</v>
+        <v>11.5</v>
       </c>
       <c r="AF14" t="n">
+        <v>32</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>150</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>37</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>90</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>37</v>
+      </c>
+      <c r="AM14" t="n">
         <v>29</v>
       </c>
-      <c r="AG14" t="n">
-        <v>120</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>28</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>65</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>24</v>
-      </c>
       <c r="AN14" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="AO14" t="n">
-        <v>7.3</v>
+        <v>6.6</v>
       </c>
       <c r="AP14" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AQ14" t="n">
-        <v>19.5</v>
+        <v>16.5</v>
       </c>
       <c r="AR14" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AS14" t="n">
         <v>110</v>
       </c>
       <c r="AT14" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="AU14" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="AV14" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AW14" t="n">
-        <v>7</v>
+        <v>7.9</v>
       </c>
       <c r="AX14" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AY14" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AZ14" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="BA14" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="BB14" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="BC14" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="BD14" t="n">
         <v>51</v>
@@ -3295,19 +3295,19 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H16" t="n">
         <v>3.6</v>
       </c>
       <c r="I16" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J16" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="K16" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L16" t="n">
         <v>4.33</v>
@@ -3382,7 +3382,7 @@
         <v>23</v>
       </c>
       <c r="AJ16" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK16" t="n">
         <v>41</v>
@@ -3397,7 +3397,7 @@
         <v>4</v>
       </c>
       <c r="AO16" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AP16" t="n">
         <v>17</v>
@@ -3659,10 +3659,10 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="H18" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="I18" t="n">
         <v>4.75</v>
@@ -3683,10 +3683,10 @@
         <v>17</v>
       </c>
       <c r="O18" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P18" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q18" t="n">
         <v>1.57</v>
@@ -3728,7 +3728,7 @@
         <v>17</v>
       </c>
       <c r="AD18" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AE18" t="n">
         <v>15</v>
@@ -3761,13 +3761,13 @@
         <v>3.75</v>
       </c>
       <c r="AO18" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AP18" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AQ18" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AR18" t="n">
         <v>41</v>
@@ -4026,10 +4026,10 @@
         <v>1.42</v>
       </c>
       <c r="H20" t="n">
-        <v>4.85</v>
+        <v>4.9</v>
       </c>
       <c r="I20" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="J20" t="n">
         <v>1.82</v>
@@ -4047,10 +4047,10 @@
         <v>10</v>
       </c>
       <c r="O20" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="P20" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="Q20" t="n">
         <v>1.34</v>
@@ -4068,7 +4068,7 @@
         <v>1.5</v>
       </c>
       <c r="V20" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="W20" t="n">
         <v>12.5</v>
@@ -4080,7 +4080,7 @@
         <v>8.75</v>
       </c>
       <c r="Z20" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AA20" t="n">
         <v>10.25</v>
@@ -4110,7 +4110,7 @@
         <v>50</v>
       </c>
       <c r="AJ20" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AK20" t="n">
         <v>120</v>
@@ -4152,7 +4152,7 @@
         <v>8.25</v>
       </c>
       <c r="AX20" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AY20" t="n">
         <v>24</v>
@@ -4208,88 +4208,88 @@
         <v>1.57</v>
       </c>
       <c r="H21" t="n">
-        <v>4.3</v>
+        <v>4.25</v>
       </c>
       <c r="I21" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="J21" t="n">
         <v>2.02</v>
       </c>
       <c r="K21" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="L21" t="n">
-        <v>4.55</v>
+        <v>4.7</v>
       </c>
       <c r="M21" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N21" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="P21" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="R21" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="T21" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V21" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="W21" t="n">
         <v>10</v>
       </c>
-      <c r="O21" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P21" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="R21" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="T21" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="U21" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="V21" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="W21" t="n">
-        <v>11.25</v>
-      </c>
       <c r="X21" t="n">
-        <v>10.25</v>
+        <v>9.25</v>
       </c>
       <c r="Y21" t="n">
         <v>8.25</v>
       </c>
       <c r="Z21" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AA21" t="n">
         <v>11</v>
       </c>
       <c r="AB21" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="AE21" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AF21" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AG21" t="n">
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="AH21" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AI21" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AJ21" t="n">
         <v>15.5</v>
@@ -4298,58 +4298,58 @@
         <v>90</v>
       </c>
       <c r="AL21" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AM21" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AN21" t="n">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="AO21" t="n">
         <v>7.3</v>
       </c>
       <c r="AP21" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AQ21" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AR21" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AS21" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AT21" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="AU21" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AV21" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AW21" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AX21" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AY21" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AZ21" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="BA21" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="BB21" t="n">
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="BC21" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="BD21" t="n">
         <v>51</v>
@@ -4569,22 +4569,22 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.52</v>
+        <v>2.57</v>
       </c>
       <c r="H23" t="n">
         <v>3</v>
       </c>
       <c r="I23" t="n">
-        <v>2.77</v>
+        <v>2.72</v>
       </c>
       <c r="J23" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="K23" t="n">
         <v>2.02</v>
       </c>
       <c r="L23" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="M23" t="n">
         <v>1.02</v>
@@ -4593,13 +4593,13 @@
         <v>7.3</v>
       </c>
       <c r="O23" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="P23" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="R23" t="n">
         <v>1.62</v>
@@ -4611,25 +4611,25 @@
         <v>2.5</v>
       </c>
       <c r="U23" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="V23" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="W23" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="X23" t="n">
         <v>12.5</v>
       </c>
       <c r="Y23" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="Z23" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AA23" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AB23" t="n">
         <v>32</v>
@@ -4638,46 +4638,46 @@
         <v>8</v>
       </c>
       <c r="AD23" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AE23" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AF23" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AG23" t="n">
         <v>600</v>
       </c>
       <c r="AH23" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="AI23" t="n">
         <v>13.5</v>
       </c>
       <c r="AJ23" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AK23" t="n">
         <v>32</v>
       </c>
       <c r="AL23" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AM23" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AN23" t="n">
-        <v>4.4</v>
+        <v>4.45</v>
       </c>
       <c r="AO23" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AP23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ23" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AR23" t="n">
         <v>90</v>
@@ -4689,7 +4689,7 @@
         <v>2.47</v>
       </c>
       <c r="AU23" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AV23" t="n">
         <v>60</v>
@@ -4698,19 +4698,19 @@
         <v>4.6</v>
       </c>
       <c r="AX23" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AY23" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ23" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="BA23" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="BB23" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="BC23" t="n">
         <v>51</v>
@@ -4808,7 +4808,7 @@
         <v>17</v>
       </c>
       <c r="Z24" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AA24" t="n">
         <v>41</v>
@@ -4850,7 +4850,7 @@
         <v>41</v>
       </c>
       <c r="AN24" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AO24" t="n">
         <v>26</v>
@@ -5297,67 +5297,67 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="H27" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I27" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="J27" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K27" t="n">
         <v>2.75</v>
       </c>
       <c r="L27" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M27" t="n">
         <v>1.01</v>
       </c>
       <c r="N27" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="O27" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="P27" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="R27" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="T27" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="U27" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="V27" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W27" t="n">
+        <v>19</v>
+      </c>
+      <c r="X27" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y27" t="n">
         <v>10</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="R27" t="n">
-        <v>4</v>
-      </c>
-      <c r="S27" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="T27" t="n">
-        <v>5</v>
-      </c>
-      <c r="U27" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="V27" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="W27" t="n">
-        <v>21</v>
-      </c>
-      <c r="X27" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>11</v>
       </c>
       <c r="Z27" t="n">
         <v>23</v>
       </c>
       <c r="AA27" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB27" t="n">
         <v>15</v>
@@ -5366,40 +5366,40 @@
         <v>34</v>
       </c>
       <c r="AD27" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE27" t="n">
         <v>11</v>
       </c>
       <c r="AF27" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>51</v>
+      </c>
+      <c r="AH27" t="n">
         <v>21</v>
       </c>
-      <c r="AG27" t="n">
-        <v>51</v>
-      </c>
-      <c r="AH27" t="n">
+      <c r="AI27" t="n">
         <v>23</v>
       </c>
-      <c r="AI27" t="n">
-        <v>26</v>
-      </c>
       <c r="AJ27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK27" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL27" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AM27" t="n">
         <v>19</v>
       </c>
       <c r="AN27" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AO27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP27" t="n">
         <v>13</v>
@@ -5411,10 +5411,10 @@
         <v>34</v>
       </c>
       <c r="AS27" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AT27" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AU27" t="n">
         <v>6.5</v>
@@ -5426,7 +5426,7 @@
         <v>6</v>
       </c>
       <c r="AX27" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AY27" t="n">
         <v>15</v>
@@ -5479,13 +5479,13 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="H28" t="n">
         <v>3.6</v>
       </c>
       <c r="I28" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="J28" t="n">
         <v>3.25</v>
@@ -5503,22 +5503,22 @@
         <v>15</v>
       </c>
       <c r="O28" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P28" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R28" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="S28" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="T28" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="U28" t="n">
         <v>1.5</v>
@@ -5545,13 +5545,13 @@
         <v>23</v>
       </c>
       <c r="AC28" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD28" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF28" t="n">
         <v>34</v>
@@ -5569,7 +5569,7 @@
         <v>9.5</v>
       </c>
       <c r="AK28" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL28" t="n">
         <v>17</v>
@@ -5584,7 +5584,7 @@
         <v>15</v>
       </c>
       <c r="AP28" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ28" t="n">
         <v>41</v>
@@ -5596,7 +5596,7 @@
         <v>101</v>
       </c>
       <c r="AT28" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AU28" t="n">
         <v>7</v>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H29" t="n">
         <v>3.8</v>
@@ -5673,10 +5673,10 @@
         <v>3.6</v>
       </c>
       <c r="K29" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L29" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="M29" t="n">
         <v>1.03</v>
@@ -5703,10 +5703,10 @@
         <v>3.5</v>
       </c>
       <c r="U29" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="V29" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="W29" t="n">
         <v>13</v>
@@ -5739,7 +5739,7 @@
         <v>34</v>
       </c>
       <c r="AG29" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AH29" t="n">
         <v>11</v>
@@ -5775,7 +5775,7 @@
         <v>51</v>
       </c>
       <c r="AS29" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT29" t="n">
         <v>3.5</v>
@@ -5787,7 +5787,7 @@
         <v>41</v>
       </c>
       <c r="AW29" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AX29" t="n">
         <v>11</v>
@@ -5846,19 +5846,19 @@
         <v>1.33</v>
       </c>
       <c r="H30" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="I30" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="J30" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="K30" t="n">
         <v>2.75</v>
       </c>
       <c r="L30" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="M30" t="n">
         <v>1.02</v>
@@ -5873,10 +5873,10 @@
         <v>6</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="R30" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="S30" t="n">
         <v>1.22</v>
@@ -5885,10 +5885,10 @@
         <v>4</v>
       </c>
       <c r="U30" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="V30" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W30" t="n">
         <v>10</v>
@@ -5936,7 +5936,7 @@
         <v>81</v>
       </c>
       <c r="AL30" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM30" t="n">
         <v>41</v>
@@ -5945,7 +5945,7 @@
         <v>3.6</v>
       </c>
       <c r="AO30" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AP30" t="n">
         <v>15</v>
@@ -6031,7 +6031,7 @@
         <v>3.4</v>
       </c>
       <c r="I31" t="n">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="J31" t="n">
         <v>3.4</v>
@@ -6055,10 +6055,10 @@
         <v>3.75</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="R31" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S31" t="n">
         <v>1.36</v>
@@ -6091,7 +6091,7 @@
         <v>29</v>
       </c>
       <c r="AC31" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD31" t="n">
         <v>6.5</v>
@@ -6103,7 +6103,7 @@
         <v>41</v>
       </c>
       <c r="AG31" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH31" t="n">
         <v>9</v>
@@ -6237,10 +6237,10 @@
         <v>3.75</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="R32" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S32" t="n">
         <v>1.36</v>
@@ -6389,16 +6389,16 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="H33" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I33" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J33" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K33" t="n">
         <v>2.4</v>
@@ -6413,16 +6413,16 @@
         <v>17</v>
       </c>
       <c r="O33" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P33" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="R33" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="S33" t="n">
         <v>1.29</v>
@@ -6431,10 +6431,10 @@
         <v>3.5</v>
       </c>
       <c r="U33" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="V33" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="W33" t="n">
         <v>10</v>
@@ -6443,7 +6443,7 @@
         <v>11</v>
       </c>
       <c r="Y33" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z33" t="n">
         <v>17</v>
@@ -6476,7 +6476,7 @@
         <v>21</v>
       </c>
       <c r="AJ33" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK33" t="n">
         <v>41</v>
@@ -6491,7 +6491,7 @@
         <v>4.33</v>
       </c>
       <c r="AO33" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AP33" t="n">
         <v>17</v>
@@ -6571,19 +6571,19 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.45</v>
+        <v>2.35</v>
       </c>
       <c r="H34" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I34" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="J34" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K34" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L34" t="n">
         <v>3.4</v>
@@ -6592,7 +6592,7 @@
         <v>1.04</v>
       </c>
       <c r="N34" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O34" t="n">
         <v>1.22</v>
@@ -6613,16 +6613,16 @@
         <v>3</v>
       </c>
       <c r="U34" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="V34" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W34" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X34" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y34" t="n">
         <v>9.5</v>
@@ -6631,19 +6631,19 @@
         <v>23</v>
       </c>
       <c r="AA34" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB34" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC34" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD34" t="n">
         <v>6.5</v>
       </c>
       <c r="AE34" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF34" t="n">
         <v>41</v>
@@ -6652,7 +6652,7 @@
         <v>151</v>
       </c>
       <c r="AH34" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI34" t="n">
         <v>15</v>
@@ -6685,7 +6685,7 @@
         <v>51</v>
       </c>
       <c r="AS34" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT34" t="n">
         <v>3</v>
@@ -6697,7 +6697,7 @@
         <v>51</v>
       </c>
       <c r="AW34" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AX34" t="n">
         <v>15</v>
@@ -6753,22 +6753,22 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="H35" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I35" t="n">
         <v>4.1</v>
       </c>
-      <c r="I35" t="n">
-        <v>4.75</v>
-      </c>
       <c r="J35" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="K35" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L35" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="M35" t="n">
         <v>1.03</v>
@@ -6795,25 +6795,25 @@
         <v>3.4</v>
       </c>
       <c r="U35" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="V35" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W35" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X35" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y35" t="n">
         <v>8.5</v>
       </c>
       <c r="Z35" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA35" t="n">
         <v>13</v>
-      </c>
-      <c r="AA35" t="n">
-        <v>12</v>
       </c>
       <c r="AB35" t="n">
         <v>21</v>
@@ -6834,34 +6834,34 @@
         <v>151</v>
       </c>
       <c r="AH35" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI35" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ35" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK35" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL35" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM35" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN35" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO35" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AP35" t="n">
         <v>17</v>
       </c>
       <c r="AQ35" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR35" t="n">
         <v>41</v>
@@ -6879,25 +6879,25 @@
         <v>41</v>
       </c>
       <c r="AW35" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AX35" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY35" t="n">
         <v>23</v>
       </c>
-      <c r="AY35" t="n">
-        <v>26</v>
-      </c>
       <c r="AZ35" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BA35" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB35" t="n">
         <v>151</v>
       </c>
       <c r="BC35" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="BD35" t="n">
         <v>151</v>
@@ -7299,52 +7299,52 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>4.1</v>
+        <v>4.15</v>
       </c>
       <c r="H38" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="I38" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="J38" t="n">
-        <v>4.6</v>
+        <v>4.65</v>
       </c>
       <c r="K38" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L38" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N38" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="O38" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P38" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Q38" t="n">
         <v>2.07</v>
       </c>
-      <c r="L38" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="M38" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N38" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="O38" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="P38" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>2.15</v>
-      </c>
       <c r="R38" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="S38" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="T38" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="U38" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="V38" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="W38" t="n">
         <v>10.25</v>
@@ -7353,10 +7353,10 @@
         <v>22</v>
       </c>
       <c r="Y38" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Z38" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AA38" t="n">
         <v>45</v>
@@ -7365,13 +7365,13 @@
         <v>55</v>
       </c>
       <c r="AC38" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="AD38" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="AE38" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AF38" t="n">
         <v>100</v>
@@ -7383,16 +7383,16 @@
         <v>6</v>
       </c>
       <c r="AI38" t="n">
-        <v>7.9</v>
+        <v>7.5</v>
       </c>
       <c r="AJ38" t="n">
         <v>8.5</v>
       </c>
       <c r="AK38" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AL38" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AM38" t="n">
         <v>32</v>
@@ -7404,7 +7404,7 @@
         <v>25</v>
       </c>
       <c r="AP38" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AQ38" t="n">
         <v>150</v>
@@ -7413,28 +7413,28 @@
         <v>200</v>
       </c>
       <c r="AS38" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AT38" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="AU38" t="n">
-        <v>7.7</v>
+        <v>8</v>
       </c>
       <c r="AV38" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AW38" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="AX38" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AY38" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AZ38" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="BA38" t="n">
         <v>75</v>
@@ -7481,10 +7481,10 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.8</v>
+        <v>2.77</v>
       </c>
       <c r="H39" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I39" t="n">
         <v>2.22</v>
@@ -7532,7 +7532,7 @@
         <v>14</v>
       </c>
       <c r="X39" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="Y39" t="n">
         <v>10.25</v>
@@ -7550,19 +7550,19 @@
         <v>9</v>
       </c>
       <c r="AD39" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AE39" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AF39" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AG39" t="n">
         <v>175</v>
       </c>
       <c r="AH39" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AI39" t="n">
         <v>14</v>
@@ -7580,10 +7580,10 @@
         <v>19.5</v>
       </c>
       <c r="AN39" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="AO39" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AP39" t="n">
         <v>17</v>
@@ -7601,10 +7601,10 @@
         <v>3.3</v>
       </c>
       <c r="AU39" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AV39" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AW39" t="n">
         <v>4.6</v>

--- a/Jogos_da_Semana_FlashScore_2024-09-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-09-25.xlsx
@@ -750,7 +750,7 @@
         <v>1.7</v>
       </c>
       <c r="H2" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I2" t="n">
         <v>5</v>
@@ -765,10 +765,10 @@
         <v>5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O2" t="n">
         <v>1.3</v>
@@ -777,10 +777,10 @@
         <v>3.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.03</v>
+        <v>1.99</v>
       </c>
       <c r="R2" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="S2" t="n">
         <v>1.4</v>
@@ -789,16 +789,16 @@
         <v>2.75</v>
       </c>
       <c r="U2" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="V2" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="W2" t="n">
         <v>7</v>
       </c>
       <c r="X2" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y2" t="n">
         <v>8.5</v>
@@ -807,7 +807,7 @@
         <v>13</v>
       </c>
       <c r="AA2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB2" t="n">
         <v>26</v>
@@ -816,7 +816,7 @@
         <v>10</v>
       </c>
       <c r="AD2" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE2" t="n">
         <v>17</v>
@@ -849,7 +849,7 @@
         <v>3.6</v>
       </c>
       <c r="AO2" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AP2" t="n">
         <v>21</v>
@@ -882,10 +882,10 @@
         <v>34</v>
       </c>
       <c r="AZ2" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA2" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB2" t="n">
         <v>251</v>
@@ -941,7 +941,7 @@
         <v>1.62</v>
       </c>
       <c r="K3" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="L3" t="n">
         <v>9.5</v>
@@ -953,10 +953,10 @@
         <v>17</v>
       </c>
       <c r="O3" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P3" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q3" t="n">
         <v>1.5</v>
@@ -977,13 +977,13 @@
         <v>1.7</v>
       </c>
       <c r="W3" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X3" t="n">
         <v>6.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z3" t="n">
         <v>7.5</v>
@@ -995,7 +995,7 @@
         <v>26</v>
       </c>
       <c r="AC3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD3" t="n">
         <v>13</v>
@@ -1010,13 +1010,13 @@
         <v>401</v>
       </c>
       <c r="AH3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI3" t="n">
         <v>51</v>
       </c>
       <c r="AJ3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AK3" t="n">
         <v>151</v>
@@ -1111,40 +1111,40 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="H4" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I4" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="J4" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="K4" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L4" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="M4" t="n">
         <v>1.03</v>
       </c>
       <c r="N4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O4" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P4" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="R4" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="S4" t="n">
         <v>1.29</v>
@@ -1159,19 +1159,19 @@
         <v>2.5</v>
       </c>
       <c r="W4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y4" t="n">
         <v>11</v>
       </c>
       <c r="Z4" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AA4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB4" t="n">
         <v>23</v>
@@ -1195,22 +1195,22 @@
         <v>12</v>
       </c>
       <c r="AI4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ4" t="n">
         <v>9.5</v>
       </c>
       <c r="AK4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM4" t="n">
         <v>21</v>
       </c>
       <c r="AN4" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AO4" t="n">
         <v>15</v>
@@ -1243,19 +1243,19 @@
         <v>12</v>
       </c>
       <c r="AY4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AZ4" t="n">
         <v>41</v>
       </c>
       <c r="BA4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BB4" t="n">
         <v>101</v>
       </c>
       <c r="BC4" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BD4" t="n">
         <v>151</v>
@@ -1302,7 +1302,7 @@
         <v>4.75</v>
       </c>
       <c r="J5" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K5" t="n">
         <v>2.38</v>
@@ -1341,7 +1341,7 @@
         <v>2</v>
       </c>
       <c r="W5" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X5" t="n">
         <v>8.5</v>
@@ -1389,7 +1389,7 @@
         <v>34</v>
       </c>
       <c r="AM5" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN5" t="n">
         <v>3.75</v>
@@ -1475,22 +1475,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="H6" t="n">
         <v>3.4</v>
       </c>
       <c r="I6" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="J6" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K6" t="n">
         <v>2.25</v>
       </c>
       <c r="L6" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M6" t="n">
         <v>1.04</v>
@@ -1532,7 +1532,7 @@
         <v>10</v>
       </c>
       <c r="Z6" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA6" t="n">
         <v>19</v>
@@ -1541,7 +1541,7 @@
         <v>26</v>
       </c>
       <c r="AC6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD6" t="n">
         <v>6.5</v>
@@ -1565,7 +1565,7 @@
         <v>10</v>
       </c>
       <c r="AK6" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AL6" t="n">
         <v>21</v>
@@ -1598,10 +1598,10 @@
         <v>7.5</v>
       </c>
       <c r="AV6" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW6" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AX6" t="n">
         <v>15</v>
@@ -1678,7 +1678,7 @@
         <v>1.02</v>
       </c>
       <c r="N7" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="O7" t="n">
         <v>1.09</v>
@@ -1693,10 +1693,10 @@
         <v>2.7</v>
       </c>
       <c r="S7" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="T7" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="U7" t="n">
         <v>2.02</v>
@@ -1839,28 +1839,28 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H8" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="I8" t="n">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="J8" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="K8" t="n">
         <v>2.1</v>
       </c>
       <c r="L8" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="M8" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="O8" t="n">
         <v>1.4</v>
@@ -1881,10 +1881,10 @@
         <v>2.5</v>
       </c>
       <c r="U8" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V8" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="W8" t="n">
         <v>15</v>
@@ -1893,25 +1893,25 @@
         <v>41</v>
       </c>
       <c r="Y8" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z8" t="n">
         <v>101</v>
       </c>
       <c r="AA8" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AB8" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AC8" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AF8" t="n">
         <v>101</v>
@@ -1923,13 +1923,13 @@
         <v>5</v>
       </c>
       <c r="AI8" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AJ8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AK8" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AL8" t="n">
         <v>15</v>
@@ -1938,7 +1938,7 @@
         <v>41</v>
       </c>
       <c r="AN8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AO8" t="n">
         <v>41</v>
@@ -1947,10 +1947,10 @@
         <v>51</v>
       </c>
       <c r="AQ8" t="n">
+        <v>201</v>
+      </c>
+      <c r="AR8" t="n">
         <v>251</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>301</v>
       </c>
       <c r="AS8" t="n">
         <v>351</v>
@@ -1959,22 +1959,22 @@
         <v>2.5</v>
       </c>
       <c r="AU8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV8" t="n">
         <v>81</v>
       </c>
       <c r="AW8" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="AX8" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AY8" t="n">
         <v>23</v>
       </c>
       <c r="AZ8" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="BA8" t="n">
         <v>51</v>
@@ -2021,16 +2021,16 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H9" t="n">
         <v>3.4</v>
       </c>
       <c r="I9" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="J9" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K9" t="n">
         <v>2.3</v>
@@ -2072,7 +2072,7 @@
         <v>9</v>
       </c>
       <c r="X9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y9" t="n">
         <v>9</v>
@@ -2102,7 +2102,7 @@
         <v>151</v>
       </c>
       <c r="AH9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI9" t="n">
         <v>21</v>
@@ -2120,7 +2120,7 @@
         <v>34</v>
       </c>
       <c r="AN9" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO9" t="n">
         <v>10</v>
@@ -2203,22 +2203,22 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="H10" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I10" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="J10" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="K10" t="n">
         <v>2.4</v>
       </c>
       <c r="L10" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M10" t="n">
         <v>1.03</v>
@@ -2254,13 +2254,13 @@
         <v>10</v>
       </c>
       <c r="X10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y10" t="n">
         <v>8.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA10" t="n">
         <v>13</v>
@@ -2287,10 +2287,10 @@
         <v>17</v>
       </c>
       <c r="AI10" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK10" t="n">
         <v>41</v>
@@ -2305,19 +2305,19 @@
         <v>4</v>
       </c>
       <c r="AO10" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AP10" t="n">
         <v>17</v>
       </c>
       <c r="AQ10" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR10" t="n">
         <v>41</v>
       </c>
       <c r="AS10" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AT10" t="n">
         <v>3.5</v>
@@ -2332,13 +2332,13 @@
         <v>6</v>
       </c>
       <c r="AX10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY10" t="n">
         <v>23</v>
       </c>
       <c r="AZ10" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA10" t="n">
         <v>67</v>
@@ -2409,16 +2409,16 @@
         <v>15</v>
       </c>
       <c r="O11" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P11" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R11" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S11" t="n">
         <v>1.33</v>
@@ -2579,7 +2579,7 @@
         <v>1.73</v>
       </c>
       <c r="K12" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L12" t="n">
         <v>12</v>
@@ -2618,10 +2618,10 @@
         <v>5</v>
       </c>
       <c r="X12" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="Y12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z12" t="n">
         <v>6.5</v>
@@ -2633,10 +2633,10 @@
         <v>41</v>
       </c>
       <c r="AC12" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE12" t="n">
         <v>34</v>
@@ -2660,10 +2660,10 @@
         <v>251</v>
       </c>
       <c r="AL12" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AM12" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AN12" t="n">
         <v>2.88</v>
@@ -2672,7 +2672,7 @@
         <v>6</v>
       </c>
       <c r="AP12" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ12" t="n">
         <v>17</v>
@@ -2681,7 +2681,7 @@
         <v>51</v>
       </c>
       <c r="AS12" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AT12" t="n">
         <v>2.75</v>
@@ -2696,7 +2696,7 @@
         <v>12</v>
       </c>
       <c r="AX12" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AY12" t="n">
         <v>67</v>
@@ -3113,22 +3113,22 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="H15" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I15" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="J15" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K15" t="n">
         <v>2.25</v>
       </c>
       <c r="L15" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M15" t="n">
         <v>1.04</v>
@@ -3143,22 +3143,22 @@
         <v>4</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="R15" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="S15" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T15" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U15" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="V15" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="W15" t="n">
         <v>10</v>
@@ -3170,16 +3170,16 @@
         <v>10</v>
       </c>
       <c r="Z15" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA15" t="n">
         <v>19</v>
       </c>
       <c r="AB15" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD15" t="n">
         <v>6.5</v>
@@ -3194,16 +3194,16 @@
         <v>151</v>
       </c>
       <c r="AH15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI15" t="n">
         <v>15</v>
       </c>
       <c r="AJ15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK15" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AL15" t="n">
         <v>21</v>
@@ -3230,16 +3230,16 @@
         <v>126</v>
       </c>
       <c r="AT15" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU15" t="n">
         <v>7.5</v>
       </c>
       <c r="AV15" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW15" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AX15" t="n">
         <v>15</v>
@@ -3477,76 +3477,76 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="H17" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="I17" t="n">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="J17" t="n">
-        <v>2.5</v>
+        <v>2.88</v>
       </c>
       <c r="K17" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L17" t="n">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M17" t="n">
         <v>1.03</v>
       </c>
       <c r="N17" t="n">
+        <v>15</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P17" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R17" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T17" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W17" t="n">
+        <v>11</v>
+      </c>
+      <c r="X17" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA17" t="n">
         <v>17</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P17" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R17" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T17" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="V17" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="W17" t="n">
-        <v>10</v>
-      </c>
-      <c r="X17" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>13</v>
       </c>
       <c r="AB17" t="n">
         <v>21</v>
       </c>
       <c r="AC17" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD17" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE17" t="n">
         <v>12</v>
@@ -3555,46 +3555,46 @@
         <v>34</v>
       </c>
       <c r="AG17" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AH17" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL17" t="n">
         <v>21</v>
       </c>
-      <c r="AJ17" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>26</v>
-      </c>
       <c r="AM17" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AN17" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="AO17" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AP17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ17" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AR17" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS17" t="n">
         <v>101</v>
       </c>
       <c r="AT17" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AU17" t="n">
         <v>7</v>
@@ -3603,22 +3603,22 @@
         <v>41</v>
       </c>
       <c r="AW17" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX17" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AY17" t="n">
         <v>21</v>
       </c>
       <c r="AZ17" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA17" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB17" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BC17" t="n">
         <v>351</v>
@@ -3659,19 +3659,19 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="H18" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I18" t="n">
         <v>4.75</v>
       </c>
       <c r="J18" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="K18" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L18" t="n">
         <v>5</v>
@@ -3680,25 +3680,25 @@
         <v>1.03</v>
       </c>
       <c r="N18" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O18" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P18" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="R18" t="n">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="S18" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="T18" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="U18" t="n">
         <v>1.67</v>
@@ -3707,16 +3707,16 @@
         <v>2.1</v>
       </c>
       <c r="W18" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X18" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Y18" t="n">
         <v>8.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA18" t="n">
         <v>12</v>
@@ -3725,10 +3725,10 @@
         <v>21</v>
       </c>
       <c r="AC18" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD18" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE18" t="n">
         <v>15</v>
@@ -3740,10 +3740,10 @@
         <v>151</v>
       </c>
       <c r="AH18" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI18" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ18" t="n">
         <v>15</v>
@@ -3776,13 +3776,13 @@
         <v>101</v>
       </c>
       <c r="AT18" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AU18" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV18" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW18" t="n">
         <v>7</v>
@@ -3841,22 +3841,22 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="H19" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I19" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="J19" t="n">
         <v>3.6</v>
-      </c>
-      <c r="I19" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="J19" t="n">
-        <v>4</v>
       </c>
       <c r="K19" t="n">
         <v>2.38</v>
       </c>
       <c r="L19" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="M19" t="n">
         <v>1.03</v>
@@ -3883,28 +3883,28 @@
         <v>3.4</v>
       </c>
       <c r="U19" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="V19" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="W19" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X19" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z19" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AA19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB19" t="n">
         <v>26</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>29</v>
       </c>
       <c r="AC19" t="n">
         <v>15</v>
@@ -3916,37 +3916,37 @@
         <v>12</v>
       </c>
       <c r="AF19" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG19" t="n">
         <v>126</v>
       </c>
       <c r="AH19" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ19" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AK19" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL19" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM19" t="n">
         <v>21</v>
       </c>
       <c r="AN19" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AO19" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP19" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ19" t="n">
         <v>51</v>
@@ -3961,7 +3961,7 @@
         <v>3.4</v>
       </c>
       <c r="AU19" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV19" t="n">
         <v>41</v>
@@ -3970,22 +3970,22 @@
         <v>4.33</v>
       </c>
       <c r="AX19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY19" t="n">
         <v>17</v>
       </c>
       <c r="AZ19" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="BA19" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BB19" t="n">
         <v>101</v>
       </c>
       <c r="BC19" t="n">
-        <v>81</v>
+        <v>351</v>
       </c>
       <c r="BD19" t="n">
         <v>81</v>
@@ -4023,19 +4023,19 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="H20" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="I20" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="J20" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="K20" t="n">
-        <v>2.72</v>
+        <v>2.8</v>
       </c>
       <c r="L20" t="n">
         <v>5.2</v>
@@ -4050,19 +4050,19 @@
         <v>1.1</v>
       </c>
       <c r="P20" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="R20" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="S20" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="T20" t="n">
-        <v>4</v>
+        <v>4.15</v>
       </c>
       <c r="U20" t="n">
         <v>1.5</v>
@@ -4071,7 +4071,7 @@
         <v>2.42</v>
       </c>
       <c r="W20" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="X20" t="n">
         <v>10</v>
@@ -4080,10 +4080,10 @@
         <v>8.75</v>
       </c>
       <c r="Z20" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AA20" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AB20" t="n">
         <v>17</v>
@@ -4092,7 +4092,7 @@
         <v>10.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AE20" t="n">
         <v>14.5</v>
@@ -4104,13 +4104,13 @@
         <v>200</v>
       </c>
       <c r="AH20" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AI20" t="n">
         <v>50</v>
       </c>
       <c r="AJ20" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AK20" t="n">
         <v>120</v>
@@ -4122,37 +4122,37 @@
         <v>37</v>
       </c>
       <c r="AN20" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="AO20" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AP20" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AQ20" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AR20" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AS20" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AT20" t="n">
-        <v>4</v>
+        <v>4.15</v>
       </c>
       <c r="AU20" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AV20" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AW20" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AX20" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AY20" t="n">
         <v>24</v>
@@ -4205,148 +4205,148 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="H21" t="n">
-        <v>4.25</v>
+        <v>4.4</v>
       </c>
       <c r="I21" t="n">
-        <v>4.9</v>
+        <v>6.4</v>
       </c>
       <c r="J21" t="n">
-        <v>2.02</v>
+        <v>1.91</v>
       </c>
       <c r="K21" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="L21" t="n">
-        <v>4.7</v>
+        <v>5.7</v>
       </c>
       <c r="M21" t="n">
         <v>1.03</v>
       </c>
       <c r="N21" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="O21" t="n">
         <v>1.16</v>
       </c>
       <c r="P21" t="n">
-        <v>4.65</v>
+        <v>4.55</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="R21" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="S21" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="T21" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="U21" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="V21" t="n">
-        <v>2.27</v>
+        <v>2.1</v>
       </c>
       <c r="W21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="X21" t="n">
-        <v>9.25</v>
+        <v>8</v>
       </c>
       <c r="Y21" t="n">
         <v>8.25</v>
       </c>
       <c r="Z21" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AA21" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AB21" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="AC21" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AD21" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AE21" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AF21" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>300</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI21" t="n">
         <v>45</v>
       </c>
-      <c r="AG21" t="n">
-        <v>250</v>
-      </c>
-      <c r="AH21" t="n">
+      <c r="AJ21" t="n">
         <v>19.5</v>
       </c>
-      <c r="AI21" t="n">
-        <v>35</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AK21" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="AL21" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>45</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>14</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>18</v>
+      </c>
+      <c r="AR21" t="n">
         <v>40</v>
       </c>
-      <c r="AM21" t="n">
-        <v>35</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="AO21" t="n">
+      <c r="AS21" t="n">
+        <v>150</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AU21" t="n">
         <v>7.3</v>
       </c>
-      <c r="AP21" t="n">
-        <v>13</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>20</v>
-      </c>
-      <c r="AR21" t="n">
-        <v>37</v>
-      </c>
-      <c r="AS21" t="n">
-        <v>120</v>
-      </c>
-      <c r="AT21" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU21" t="n">
-        <v>6.8</v>
-      </c>
       <c r="AV21" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AW21" t="n">
-        <v>7.1</v>
+        <v>8</v>
       </c>
       <c r="AX21" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="AY21" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="AZ21" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="BA21" t="n">
-        <v>120</v>
+        <v>175</v>
       </c>
       <c r="BB21" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BC21" t="n">
         <v>500</v>
@@ -4775,10 +4775,10 @@
         <v>5.5</v>
       </c>
       <c r="O24" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="P24" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q24" t="n">
         <v>3.1</v>
@@ -4799,7 +4799,7 @@
         <v>1.5</v>
       </c>
       <c r="W24" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X24" t="n">
         <v>19</v>
@@ -4808,7 +4808,7 @@
         <v>17</v>
       </c>
       <c r="Z24" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AA24" t="n">
         <v>41</v>
@@ -4838,7 +4838,7 @@
         <v>8</v>
       </c>
       <c r="AJ24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK24" t="n">
         <v>19</v>
@@ -4850,7 +4850,7 @@
         <v>41</v>
       </c>
       <c r="AN24" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AO24" t="n">
         <v>26</v>
@@ -4874,7 +4874,7 @@
         <v>10</v>
       </c>
       <c r="AV24" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AW24" t="n">
         <v>3.75</v>
@@ -4951,16 +4951,16 @@
         <v>2</v>
       </c>
       <c r="M25" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O25" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P25" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q25" t="n">
         <v>2.1</v>
@@ -5479,22 +5479,22 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="H28" t="n">
         <v>3.6</v>
       </c>
       <c r="I28" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="J28" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K28" t="n">
         <v>2.38</v>
       </c>
       <c r="L28" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="M28" t="n">
         <v>1.03</v>
@@ -5503,28 +5503,28 @@
         <v>15</v>
       </c>
       <c r="O28" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P28" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="R28" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="S28" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="T28" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="U28" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="V28" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="W28" t="n">
         <v>13</v>
@@ -5536,28 +5536,28 @@
         <v>11</v>
       </c>
       <c r="Z28" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AA28" t="n">
         <v>21</v>
       </c>
       <c r="AB28" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC28" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD28" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF28" t="n">
         <v>34</v>
       </c>
       <c r="AG28" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AH28" t="n">
         <v>11</v>
@@ -5569,34 +5569,34 @@
         <v>9.5</v>
       </c>
       <c r="AK28" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL28" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM28" t="n">
         <v>21</v>
       </c>
       <c r="AN28" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AO28" t="n">
         <v>15</v>
       </c>
       <c r="AP28" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ28" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR28" t="n">
         <v>51</v>
       </c>
       <c r="AS28" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT28" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AU28" t="n">
         <v>7</v>
@@ -5605,7 +5605,7 @@
         <v>41</v>
       </c>
       <c r="AW28" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AX28" t="n">
         <v>12</v>
@@ -5661,22 +5661,22 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="H29" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I29" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="J29" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="K29" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L29" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="M29" t="n">
         <v>1.03</v>
@@ -5712,19 +5712,19 @@
         <v>13</v>
       </c>
       <c r="X29" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z29" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AA29" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB29" t="n">
         <v>23</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>26</v>
       </c>
       <c r="AC29" t="n">
         <v>17</v>
@@ -5745,13 +5745,13 @@
         <v>11</v>
       </c>
       <c r="AI29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ29" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK29" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL29" t="n">
         <v>15</v>
@@ -5763,13 +5763,13 @@
         <v>5.5</v>
       </c>
       <c r="AO29" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP29" t="n">
         <v>21</v>
       </c>
       <c r="AQ29" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR29" t="n">
         <v>51</v>
@@ -5790,16 +5790,16 @@
         <v>4.5</v>
       </c>
       <c r="AX29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AY29" t="n">
         <v>17</v>
       </c>
       <c r="AZ29" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BA29" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BB29" t="n">
         <v>101</v>
@@ -5843,7 +5843,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="H30" t="n">
         <v>5.5</v>
@@ -5894,16 +5894,16 @@
         <v>10</v>
       </c>
       <c r="X30" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Y30" t="n">
         <v>9</v>
       </c>
       <c r="Z30" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA30" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB30" t="n">
         <v>21</v>
@@ -5915,10 +5915,10 @@
         <v>11</v>
       </c>
       <c r="AE30" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF30" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG30" t="n">
         <v>151</v>
@@ -5963,22 +5963,22 @@
         <v>4</v>
       </c>
       <c r="AU30" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV30" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW30" t="n">
         <v>8.5</v>
-      </c>
-      <c r="AV30" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW30" t="n">
-        <v>9</v>
       </c>
       <c r="AX30" t="n">
         <v>34</v>
       </c>
       <c r="AY30" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ30" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BA30" t="n">
         <v>101</v>
@@ -6025,22 +6025,22 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="H31" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I31" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="J31" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K31" t="n">
         <v>2.2</v>
       </c>
       <c r="L31" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M31" t="n">
         <v>1.05</v>
@@ -6049,16 +6049,16 @@
         <v>11</v>
       </c>
       <c r="O31" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P31" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="R31" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="S31" t="n">
         <v>1.36</v>
@@ -6073,16 +6073,16 @@
         <v>2.1</v>
       </c>
       <c r="W31" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X31" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y31" t="n">
         <v>10</v>
       </c>
-      <c r="X31" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>11</v>
-      </c>
       <c r="Z31" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AA31" t="n">
         <v>21</v>
@@ -6091,7 +6091,7 @@
         <v>29</v>
       </c>
       <c r="AC31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD31" t="n">
         <v>6.5</v>
@@ -6103,28 +6103,28 @@
         <v>41</v>
       </c>
       <c r="AG31" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH31" t="n">
         <v>9</v>
       </c>
       <c r="AI31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ31" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AK31" t="n">
         <v>23</v>
       </c>
       <c r="AL31" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM31" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN31" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AO31" t="n">
         <v>15</v>
@@ -6163,7 +6163,7 @@
         <v>41</v>
       </c>
       <c r="BA31" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB31" t="n">
         <v>151</v>
@@ -6207,22 +6207,22 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="H32" t="n">
         <v>3.4</v>
       </c>
       <c r="I32" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="J32" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="K32" t="n">
         <v>2.2</v>
       </c>
       <c r="L32" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="M32" t="n">
         <v>1.05</v>
@@ -6261,19 +6261,19 @@
         <v>17</v>
       </c>
       <c r="Y32" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z32" t="n">
         <v>34</v>
       </c>
       <c r="AA32" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB32" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC32" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD32" t="n">
         <v>6.5</v>
@@ -6285,16 +6285,16 @@
         <v>41</v>
       </c>
       <c r="AG32" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH32" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ32" t="n">
         <v>9</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>9.5</v>
       </c>
       <c r="AK32" t="n">
         <v>21</v>
@@ -6303,10 +6303,10 @@
         <v>17</v>
       </c>
       <c r="AM32" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN32" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AO32" t="n">
         <v>17</v>
@@ -6389,19 +6389,19 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="H33" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="I33" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J33" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K33" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="L33" t="n">
         <v>4</v>
@@ -6410,34 +6410,34 @@
         <v>1.03</v>
       </c>
       <c r="N33" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O33" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P33" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="R33" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="S33" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="T33" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U33" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="V33" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W33" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="X33" t="n">
         <v>11</v>
@@ -6449,16 +6449,16 @@
         <v>17</v>
       </c>
       <c r="AA33" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB33" t="n">
         <v>21</v>
       </c>
       <c r="AC33" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD33" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE33" t="n">
         <v>13</v>
@@ -6467,16 +6467,16 @@
         <v>41</v>
       </c>
       <c r="AG33" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AH33" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI33" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ33" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK33" t="n">
         <v>41</v>
@@ -6491,31 +6491,31 @@
         <v>4.33</v>
       </c>
       <c r="AO33" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AP33" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ33" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR33" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS33" t="n">
         <v>101</v>
       </c>
       <c r="AT33" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="AU33" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AV33" t="n">
         <v>41</v>
       </c>
       <c r="AW33" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AX33" t="n">
         <v>19</v>
@@ -6530,13 +6530,13 @@
         <v>67</v>
       </c>
       <c r="BB33" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC33" t="n">
         <v>351</v>
       </c>
       <c r="BD33" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="34">
@@ -6571,85 +6571,85 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.35</v>
+        <v>2.55</v>
       </c>
       <c r="H34" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I34" t="n">
-        <v>2.88</v>
+        <v>2.6</v>
       </c>
       <c r="J34" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K34" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L34" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N34" t="n">
+        <v>15</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P34" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R34" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T34" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U34" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V34" t="n">
         <v>2.25</v>
       </c>
-      <c r="L34" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="M34" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N34" t="n">
-        <v>12</v>
-      </c>
-      <c r="O34" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P34" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="R34" t="n">
-        <v>2</v>
-      </c>
-      <c r="S34" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T34" t="n">
-        <v>3</v>
-      </c>
-      <c r="U34" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V34" t="n">
-        <v>2.2</v>
-      </c>
       <c r="W34" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="X34" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Y34" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z34" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA34" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB34" t="n">
         <v>23</v>
       </c>
       <c r="AC34" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AD34" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE34" t="n">
         <v>12</v>
       </c>
       <c r="AF34" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG34" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AH34" t="n">
         <v>11</v>
@@ -6658,19 +6658,19 @@
         <v>15</v>
       </c>
       <c r="AJ34" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK34" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AL34" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AM34" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AN34" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO34" t="n">
         <v>13</v>
@@ -6688,34 +6688,34 @@
         <v>126</v>
       </c>
       <c r="AT34" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU34" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV34" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW34" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AX34" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AY34" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ34" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA34" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB34" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BC34" t="n">
-        <v>501</v>
+        <v>401</v>
       </c>
       <c r="BD34" t="n">
         <v>81</v>
@@ -6753,16 +6753,16 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H35" t="n">
         <v>3.9</v>
       </c>
       <c r="I35" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J35" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="K35" t="n">
         <v>2.38</v>
@@ -6801,10 +6801,10 @@
         <v>2.2</v>
       </c>
       <c r="W35" t="n">
+        <v>9</v>
+      </c>
+      <c r="X35" t="n">
         <v>9.5</v>
-      </c>
-      <c r="X35" t="n">
-        <v>10</v>
       </c>
       <c r="Y35" t="n">
         <v>8.5</v>
@@ -6885,13 +6885,13 @@
         <v>21</v>
       </c>
       <c r="AY35" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ35" t="n">
         <v>67</v>
       </c>
       <c r="BA35" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB35" t="n">
         <v>151</v>
@@ -6935,46 +6935,46 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.9</v>
+        <v>2.15</v>
       </c>
       <c r="H36" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I36" t="n">
         <v>3.5</v>
       </c>
-      <c r="I36" t="n">
+      <c r="J36" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K36" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L36" t="n">
         <v>4</v>
       </c>
-      <c r="J36" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K36" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L36" t="n">
-        <v>4.33</v>
-      </c>
       <c r="M36" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N36" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O36" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="P36" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.95</v>
+        <v>2.08</v>
       </c>
       <c r="R36" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="S36" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T36" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U36" t="n">
         <v>1.8</v>
@@ -6983,28 +6983,28 @@
         <v>1.95</v>
       </c>
       <c r="W36" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X36" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y36" t="n">
         <v>9</v>
       </c>
-      <c r="Y36" t="n">
-        <v>8.5</v>
-      </c>
       <c r="Z36" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA36" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AB36" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC36" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AD36" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE36" t="n">
         <v>15</v>
@@ -7013,22 +7013,22 @@
         <v>51</v>
       </c>
       <c r="AG36" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH36" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI36" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AJ36" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK36" t="n">
         <v>41</v>
       </c>
       <c r="AL36" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM36" t="n">
         <v>41</v>
@@ -7037,22 +7037,22 @@
         <v>4</v>
       </c>
       <c r="AO36" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AP36" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ36" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR36" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS36" t="n">
         <v>151</v>
       </c>
       <c r="AT36" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU36" t="n">
         <v>8</v>
@@ -7064,7 +7064,7 @@
         <v>5.5</v>
       </c>
       <c r="AX36" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY36" t="n">
         <v>29</v>
@@ -7073,7 +7073,7 @@
         <v>67</v>
       </c>
       <c r="BA36" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB36" t="n">
         <v>201</v>
@@ -7117,22 +7117,22 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="H37" t="n">
         <v>3.2</v>
       </c>
       <c r="I37" t="n">
-        <v>2.63</v>
+        <v>2.8</v>
       </c>
       <c r="J37" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="K37" t="n">
         <v>2.1</v>
       </c>
       <c r="L37" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M37" t="n">
         <v>1.06</v>
@@ -7147,16 +7147,16 @@
         <v>3.4</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R37" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S37" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T37" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U37" t="n">
         <v>1.75</v>
@@ -7168,13 +7168,13 @@
         <v>8.5</v>
       </c>
       <c r="X37" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y37" t="n">
         <v>10</v>
       </c>
       <c r="Z37" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA37" t="n">
         <v>21</v>
@@ -7192,31 +7192,31 @@
         <v>13</v>
       </c>
       <c r="AF37" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG37" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH37" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI37" t="n">
         <v>13</v>
       </c>
       <c r="AJ37" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK37" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AL37" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM37" t="n">
         <v>29</v>
       </c>
       <c r="AN37" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AO37" t="n">
         <v>15</v>
@@ -7225,7 +7225,7 @@
         <v>23</v>
       </c>
       <c r="AQ37" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR37" t="n">
         <v>67</v>
@@ -7234,7 +7234,7 @@
         <v>151</v>
       </c>
       <c r="AT37" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU37" t="n">
         <v>8</v>
@@ -7243,7 +7243,7 @@
         <v>51</v>
       </c>
       <c r="AW37" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AX37" t="n">
         <v>15</v>
@@ -7299,28 +7299,28 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>4.15</v>
+        <v>3.85</v>
       </c>
       <c r="H38" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="I38" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="J38" t="n">
-        <v>4.65</v>
+        <v>4.4</v>
       </c>
       <c r="K38" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="L38" t="n">
-        <v>2.37</v>
+        <v>2.5</v>
       </c>
       <c r="M38" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N38" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="O38" t="n">
         <v>1.37</v>
@@ -7329,115 +7329,115 @@
         <v>2.85</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.07</v>
+        <v>2.12</v>
       </c>
       <c r="R38" t="n">
         <v>1.7</v>
       </c>
       <c r="S38" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="T38" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="U38" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="V38" t="n">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="W38" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="X38" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Y38" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="Z38" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AA38" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AB38" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AC38" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AD38" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="AE38" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AF38" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AG38" t="n">
         <v>900</v>
       </c>
       <c r="AH38" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AI38" t="n">
-        <v>7.5</v>
+        <v>8.25</v>
       </c>
       <c r="AJ38" t="n">
         <v>8.5</v>
       </c>
       <c r="AK38" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="AL38" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AM38" t="n">
         <v>32</v>
       </c>
       <c r="AN38" t="n">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="AO38" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AP38" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AQ38" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AR38" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AS38" t="n">
         <v>450</v>
       </c>
       <c r="AT38" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="AU38" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AV38" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AW38" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="AX38" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AY38" t="n">
         <v>21</v>
       </c>
       <c r="AZ38" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="BA38" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="BB38" t="n">
         <v>300</v>
@@ -7481,22 +7481,22 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.77</v>
+        <v>2.8</v>
       </c>
       <c r="H39" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I39" t="n">
         <v>2.22</v>
       </c>
       <c r="J39" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="K39" t="n">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="L39" t="n">
-        <v>2.75</v>
+        <v>2.72</v>
       </c>
       <c r="M39" t="n">
         <v>1.03</v>
@@ -7517,22 +7517,22 @@
         <v>2.35</v>
       </c>
       <c r="S39" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="T39" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="U39" t="n">
         <v>1.45</v>
       </c>
       <c r="V39" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="W39" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="X39" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Y39" t="n">
         <v>10.25</v>
@@ -7541,88 +7541,88 @@
         <v>37</v>
       </c>
       <c r="AA39" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AB39" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC39" t="n">
         <v>9</v>
       </c>
       <c r="AD39" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AE39" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AF39" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AG39" t="n">
         <v>175</v>
       </c>
       <c r="AH39" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AI39" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ39" t="n">
         <v>9</v>
       </c>
       <c r="AK39" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL39" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AM39" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AN39" t="n">
         <v>5.2</v>
       </c>
       <c r="AO39" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AP39" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AQ39" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AR39" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AS39" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AT39" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="AU39" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AV39" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AW39" t="n">
         <v>4.6</v>
       </c>
       <c r="AX39" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AY39" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AZ39" t="n">
         <v>40</v>
       </c>
       <c r="BA39" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="BB39" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="BC39" t="n">
         <v>500</v>

--- a/Jogos_da_Semana_FlashScore_2024-09-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-09-25.xlsx
@@ -777,10 +777,10 @@
         <v>3.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="R2" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="S2" t="n">
         <v>1.4</v>
@@ -935,16 +935,16 @@
         <v>7</v>
       </c>
       <c r="I3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J3" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="K3" t="n">
-        <v>2.88</v>
+        <v>2.63</v>
       </c>
       <c r="L3" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="M3" t="n">
         <v>1.03</v>
@@ -953,37 +953,37 @@
         <v>17</v>
       </c>
       <c r="O3" t="n">
-        <v>1.14</v>
+        <v>1.2</v>
       </c>
       <c r="P3" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="R3" t="n">
-        <v>2.63</v>
+        <v>2.3</v>
       </c>
       <c r="S3" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="T3" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U3" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="V3" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="W3" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="X3" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Y3" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z3" t="n">
         <v>7.5</v>
@@ -992,79 +992,79 @@
         <v>11</v>
       </c>
       <c r="AB3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AD3" t="n">
         <v>13</v>
       </c>
       <c r="AE3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF3" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>501</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>101</v>
+      </c>
+      <c r="AL3" t="n">
         <v>67</v>
       </c>
-      <c r="AG3" t="n">
-        <v>401</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>151</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>81</v>
-      </c>
       <c r="AM3" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="AO3" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AP3" t="n">
         <v>17</v>
       </c>
       <c r="AQ3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AR3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AS3" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT3" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="AU3" t="n">
         <v>10</v>
       </c>
       <c r="AV3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AY3" t="n">
         <v>41</v>
       </c>
       <c r="AZ3" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BA3" t="n">
         <v>201</v>
@@ -1293,13 +1293,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="H5" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I5" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J5" t="n">
         <v>2.2</v>
@@ -1308,7 +1308,7 @@
         <v>2.38</v>
       </c>
       <c r="L5" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M5" t="n">
         <v>1.04</v>
@@ -1386,7 +1386,7 @@
         <v>51</v>
       </c>
       <c r="AL5" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM5" t="n">
         <v>41</v>
@@ -1431,7 +1431,7 @@
         <v>81</v>
       </c>
       <c r="BA5" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB5" t="n">
         <v>151</v>
@@ -2021,52 +2021,52 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="H9" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I9" t="n">
         <v>3.4</v>
       </c>
-      <c r="I9" t="n">
-        <v>3.8</v>
-      </c>
       <c r="J9" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="K9" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L9" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M9" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N9" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O9" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="P9" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.7</v>
+        <v>1.93</v>
       </c>
       <c r="R9" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T9" t="n">
+        <v>3</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V9" t="n">
         <v>2.1</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T9" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V9" t="n">
-        <v>2.2</v>
       </c>
       <c r="W9" t="n">
         <v>9</v>
@@ -2078,19 +2078,19 @@
         <v>9</v>
       </c>
       <c r="Z9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA9" t="n">
         <v>17</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>15</v>
       </c>
       <c r="AB9" t="n">
         <v>23</v>
       </c>
       <c r="AC9" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AD9" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE9" t="n">
         <v>12</v>
@@ -2102,19 +2102,19 @@
         <v>151</v>
       </c>
       <c r="AH9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI9" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK9" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL9" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM9" t="n">
         <v>34</v>
@@ -2123,34 +2123,34 @@
         <v>4.33</v>
       </c>
       <c r="AO9" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AP9" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ9" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR9" t="n">
         <v>51</v>
       </c>
       <c r="AS9" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT9" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU9" t="n">
         <v>7.5</v>
       </c>
       <c r="AV9" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW9" t="n">
         <v>5.5</v>
       </c>
       <c r="AX9" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AY9" t="n">
         <v>23</v>
@@ -2203,13 +2203,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H10" t="n">
         <v>3.75</v>
       </c>
       <c r="I10" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J10" t="n">
         <v>2.3</v>
@@ -2218,13 +2218,13 @@
         <v>2.4</v>
       </c>
       <c r="L10" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M10" t="n">
         <v>1.03</v>
       </c>
       <c r="N10" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O10" t="n">
         <v>1.17</v>
@@ -2233,10 +2233,10 @@
         <v>5</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="R10" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="S10" t="n">
         <v>1.29</v>
@@ -2254,7 +2254,7 @@
         <v>10</v>
       </c>
       <c r="X10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y10" t="n">
         <v>8.5</v>
@@ -2266,10 +2266,10 @@
         <v>13</v>
       </c>
       <c r="AB10" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC10" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD10" t="n">
         <v>7.5</v>
@@ -2281,7 +2281,7 @@
         <v>34</v>
       </c>
       <c r="AG10" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AH10" t="n">
         <v>17</v>
@@ -2323,7 +2323,7 @@
         <v>3.5</v>
       </c>
       <c r="AU10" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV10" t="n">
         <v>41</v>
@@ -2338,7 +2338,7 @@
         <v>23</v>
       </c>
       <c r="AZ10" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BA10" t="n">
         <v>67</v>
@@ -2409,16 +2409,16 @@
         <v>15</v>
       </c>
       <c r="O11" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P11" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R11" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S11" t="n">
         <v>1.33</v>
@@ -2567,22 +2567,22 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="H12" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="I12" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J12" t="n">
         <v>1.73</v>
       </c>
       <c r="K12" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M12" t="n">
         <v>1.06</v>
@@ -2591,16 +2591,16 @@
         <v>10</v>
       </c>
       <c r="O12" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P12" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R12" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="S12" t="n">
         <v>1.4</v>
@@ -2618,10 +2618,10 @@
         <v>5</v>
       </c>
       <c r="X12" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="Y12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z12" t="n">
         <v>6.5</v>
@@ -2633,13 +2633,13 @@
         <v>41</v>
       </c>
       <c r="AC12" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE12" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AF12" t="n">
         <v>151</v>
@@ -2648,34 +2648,34 @@
         <v>201</v>
       </c>
       <c r="AH12" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI12" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AJ12" t="n">
         <v>41</v>
       </c>
       <c r="AK12" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AL12" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AM12" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AN12" t="n">
         <v>2.88</v>
       </c>
       <c r="AO12" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AP12" t="n">
         <v>23</v>
       </c>
       <c r="AQ12" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AR12" t="n">
         <v>51</v>
@@ -2693,10 +2693,10 @@
         <v>101</v>
       </c>
       <c r="AW12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AX12" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AY12" t="n">
         <v>67</v>
@@ -3501,16 +3501,16 @@
         <v>15</v>
       </c>
       <c r="O17" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P17" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R17" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="S17" t="n">
         <v>1.3</v>
@@ -3871,10 +3871,10 @@
         <v>4.5</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="R19" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S19" t="n">
         <v>1.3</v>
@@ -4205,22 +4205,22 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="H21" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="I21" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="J21" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="K21" t="n">
-        <v>2.45</v>
+        <v>2.47</v>
       </c>
       <c r="L21" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="M21" t="n">
         <v>1.03</v>
@@ -4232,19 +4232,19 @@
         <v>1.16</v>
       </c>
       <c r="P21" t="n">
-        <v>4.55</v>
+        <v>4.65</v>
       </c>
       <c r="Q21" t="n">
         <v>1.5</v>
       </c>
       <c r="R21" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="S21" t="n">
         <v>1.28</v>
       </c>
       <c r="T21" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="U21" t="n">
         <v>1.65</v>
@@ -4262,10 +4262,10 @@
         <v>8.25</v>
       </c>
       <c r="Z21" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AA21" t="n">
         <v>10.5</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>10.75</v>
       </c>
       <c r="AB21" t="n">
         <v>20</v>
@@ -4274,10 +4274,10 @@
         <v>9.25</v>
       </c>
       <c r="AD21" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AE21" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AF21" t="n">
         <v>55</v>
@@ -4286,19 +4286,19 @@
         <v>300</v>
       </c>
       <c r="AH21" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI21" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AJ21" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AK21" t="n">
         <v>150</v>
       </c>
       <c r="AL21" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AM21" t="n">
         <v>45</v>
@@ -4307,34 +4307,34 @@
         <v>3.5</v>
       </c>
       <c r="AO21" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AP21" t="n">
         <v>14</v>
       </c>
       <c r="AQ21" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AR21" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AS21" t="n">
         <v>150</v>
       </c>
       <c r="AT21" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="AU21" t="n">
         <v>7.3</v>
       </c>
       <c r="AV21" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AW21" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AX21" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AY21" t="n">
         <v>30</v>
@@ -4569,10 +4569,10 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="H23" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="I23" t="n">
         <v>2.72</v>
@@ -4584,22 +4584,22 @@
         <v>2.02</v>
       </c>
       <c r="L23" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M23" t="n">
         <v>1.02</v>
       </c>
       <c r="N23" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="O23" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="P23" t="n">
-        <v>2.7</v>
+        <v>2.67</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="R23" t="n">
         <v>1.62</v>
@@ -4608,7 +4608,7 @@
         <v>1.4</v>
       </c>
       <c r="T23" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="U23" t="n">
         <v>1.75</v>
@@ -4617,7 +4617,7 @@
         <v>1.85</v>
       </c>
       <c r="W23" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="X23" t="n">
         <v>12.5</v>
@@ -4626,16 +4626,16 @@
         <v>9.75</v>
       </c>
       <c r="Z23" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AA23" t="n">
         <v>23</v>
       </c>
       <c r="AB23" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AC23" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AD23" t="n">
         <v>5.8</v>
@@ -4650,7 +4650,7 @@
         <v>600</v>
       </c>
       <c r="AH23" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AI23" t="n">
         <v>13.5</v>
@@ -4662,7 +4662,7 @@
         <v>32</v>
       </c>
       <c r="AL23" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AM23" t="n">
         <v>35</v>
@@ -4671,7 +4671,7 @@
         <v>4.45</v>
       </c>
       <c r="AO23" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AP23" t="n">
         <v>21</v>
@@ -4686,13 +4686,13 @@
         <v>250</v>
       </c>
       <c r="AT23" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AU23" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AV23" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AW23" t="n">
         <v>4.6</v>
@@ -4701,13 +4701,13 @@
         <v>14.5</v>
       </c>
       <c r="AY23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AZ23" t="n">
         <v>65</v>
       </c>
       <c r="BA23" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="BB23" t="n">
         <v>250</v>
@@ -4933,13 +4933,13 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="H25" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="I25" t="n">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="J25" t="n">
         <v>8</v>
@@ -4948,13 +4948,13 @@
         <v>2.2</v>
       </c>
       <c r="L25" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="M25" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O25" t="n">
         <v>1.36</v>
@@ -4963,10 +4963,10 @@
         <v>3</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R25" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S25" t="n">
         <v>1.44</v>
@@ -4975,19 +4975,19 @@
         <v>2.63</v>
       </c>
       <c r="U25" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="V25" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="W25" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X25" t="n">
         <v>41</v>
       </c>
       <c r="Y25" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z25" t="n">
         <v>101</v>
@@ -4996,7 +4996,7 @@
         <v>67</v>
       </c>
       <c r="AB25" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AC25" t="n">
         <v>8</v>
@@ -5005,25 +5005,25 @@
         <v>8</v>
       </c>
       <c r="AE25" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF25" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AG25" t="n">
         <v>101</v>
       </c>
       <c r="AH25" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AI25" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AJ25" t="n">
         <v>9</v>
       </c>
       <c r="AK25" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AL25" t="n">
         <v>15</v>
@@ -5032,7 +5032,7 @@
         <v>41</v>
       </c>
       <c r="AN25" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AO25" t="n">
         <v>41</v>
@@ -5053,22 +5053,22 @@
         <v>2.63</v>
       </c>
       <c r="AU25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV25" t="n">
         <v>81</v>
       </c>
       <c r="AW25" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="AX25" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AY25" t="n">
         <v>23</v>
       </c>
       <c r="AZ25" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BA25" t="n">
         <v>51</v>
@@ -5145,10 +5145,10 @@
         <v>3.5</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="R26" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="S26" t="n">
         <v>1.36</v>
@@ -5843,22 +5843,22 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="H30" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="I30" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="J30" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="K30" t="n">
         <v>2.75</v>
       </c>
       <c r="L30" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M30" t="n">
         <v>1.02</v>
@@ -5897,7 +5897,7 @@
         <v>8.5</v>
       </c>
       <c r="Y30" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z30" t="n">
         <v>10</v>
@@ -5930,10 +5930,10 @@
         <v>41</v>
       </c>
       <c r="AJ30" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK30" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AL30" t="n">
         <v>41</v>
@@ -5942,7 +5942,7 @@
         <v>41</v>
       </c>
       <c r="AN30" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO30" t="n">
         <v>6.5</v>
@@ -5951,7 +5951,7 @@
         <v>15</v>
       </c>
       <c r="AQ30" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AR30" t="n">
         <v>34</v>
@@ -6207,22 +6207,22 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="H32" t="n">
         <v>3.4</v>
       </c>
       <c r="I32" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="J32" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K32" t="n">
         <v>2.2</v>
       </c>
       <c r="L32" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="M32" t="n">
         <v>1.05</v>
@@ -6237,10 +6237,10 @@
         <v>3.75</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="R32" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S32" t="n">
         <v>1.36</v>
@@ -6267,10 +6267,10 @@
         <v>34</v>
       </c>
       <c r="AA32" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AB32" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC32" t="n">
         <v>11</v>
@@ -6285,7 +6285,7 @@
         <v>41</v>
       </c>
       <c r="AG32" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH32" t="n">
         <v>8.5</v>
@@ -6306,7 +6306,7 @@
         <v>26</v>
       </c>
       <c r="AN32" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AO32" t="n">
         <v>17</v>
@@ -6536,7 +6536,7 @@
         <v>351</v>
       </c>
       <c r="BD33" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="34">
@@ -6783,10 +6783,10 @@
         <v>4.5</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="R35" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S35" t="n">
         <v>1.3</v>
@@ -7299,109 +7299,109 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>3.85</v>
+        <v>3.6</v>
       </c>
       <c r="H38" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I38" t="n">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="J38" t="n">
-        <v>4.4</v>
+        <v>4.25</v>
       </c>
       <c r="K38" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="L38" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="M38" t="n">
         <v>1.08</v>
       </c>
       <c r="N38" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="O38" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="P38" t="n">
-        <v>2.85</v>
+        <v>2.75</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="R38" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="S38" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="T38" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="U38" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="V38" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="W38" t="n">
-        <v>9.75</v>
+        <v>9</v>
       </c>
       <c r="X38" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Y38" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Z38" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AA38" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AB38" t="n">
         <v>50</v>
       </c>
       <c r="AC38" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AD38" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AE38" t="n">
         <v>17</v>
       </c>
       <c r="AF38" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AG38" t="n">
         <v>900</v>
       </c>
       <c r="AH38" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AI38" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AJ38" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AK38" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AL38" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AM38" t="n">
         <v>32</v>
       </c>
       <c r="AN38" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="AO38" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AP38" t="n">
         <v>32</v>
@@ -7413,10 +7413,10 @@
         <v>175</v>
       </c>
       <c r="AS38" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AT38" t="n">
-        <v>2.57</v>
+        <v>2.5</v>
       </c>
       <c r="AU38" t="n">
         <v>7.8</v>
@@ -7425,22 +7425,22 @@
         <v>80</v>
       </c>
       <c r="AW38" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="AX38" t="n">
-        <v>9.5</v>
+        <v>10.25</v>
       </c>
       <c r="AY38" t="n">
         <v>21</v>
       </c>
       <c r="AZ38" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="BA38" t="n">
         <v>80</v>
       </c>
       <c r="BB38" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="BC38" t="n">
         <v>51</v>
@@ -7481,22 +7481,22 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.8</v>
+        <v>2.65</v>
       </c>
       <c r="H39" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I39" t="n">
-        <v>2.22</v>
+        <v>2.32</v>
       </c>
       <c r="J39" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="K39" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="L39" t="n">
-        <v>2.72</v>
+        <v>2.82</v>
       </c>
       <c r="M39" t="n">
         <v>1.03</v>
@@ -7508,49 +7508,49 @@
         <v>1.17</v>
       </c>
       <c r="P39" t="n">
-        <v>4.4</v>
+        <v>4.45</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="R39" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="S39" t="n">
         <v>1.29</v>
       </c>
       <c r="T39" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="U39" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="V39" t="n">
         <v>2.57</v>
       </c>
       <c r="W39" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="X39" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Y39" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="Z39" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AA39" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB39" t="n">
         <v>21</v>
-      </c>
-      <c r="AB39" t="n">
-        <v>23</v>
       </c>
       <c r="AC39" t="n">
         <v>9</v>
       </c>
       <c r="AD39" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AE39" t="n">
         <v>10.75</v>
@@ -7568,37 +7568,37 @@
         <v>15</v>
       </c>
       <c r="AJ39" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AK39" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AL39" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AM39" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AN39" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="AO39" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AP39" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AQ39" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AR39" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AS39" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AT39" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="AU39" t="n">
         <v>6.1</v>
@@ -7607,22 +7607,22 @@
         <v>37</v>
       </c>
       <c r="AW39" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="AX39" t="n">
-        <v>11.25</v>
+        <v>12</v>
       </c>
       <c r="AY39" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AZ39" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="BA39" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="BB39" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="BC39" t="n">
         <v>500</v>

--- a/Jogos_da_Semana_FlashScore_2024-09-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-09-25.xlsx
@@ -941,10 +941,10 @@
         <v>1.73</v>
       </c>
       <c r="K3" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="L3" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="M3" t="n">
         <v>1.03</v>
@@ -953,43 +953,43 @@
         <v>17</v>
       </c>
       <c r="O3" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P3" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q3" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R3" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T3" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U3" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V3" t="n">
         <v>1.62</v>
       </c>
-      <c r="R3" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T3" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U3" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.67</v>
-      </c>
       <c r="W3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X3" t="n">
         <v>6</v>
       </c>
       <c r="Y3" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB3" t="n">
         <v>29</v>
@@ -1004,25 +1004,25 @@
         <v>29</v>
       </c>
       <c r="AF3" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AG3" t="n">
         <v>501</v>
       </c>
       <c r="AH3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI3" t="n">
         <v>41</v>
       </c>
       <c r="AJ3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AK3" t="n">
         <v>101</v>
       </c>
       <c r="AL3" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AM3" t="n">
         <v>51</v>
@@ -1034,10 +1034,10 @@
         <v>6</v>
       </c>
       <c r="AP3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ3" t="n">
         <v>17</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>15</v>
       </c>
       <c r="AR3" t="n">
         <v>41</v>
@@ -1046,7 +1046,7 @@
         <v>126</v>
       </c>
       <c r="AT3" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AU3" t="n">
         <v>10</v>
@@ -1293,7 +1293,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H5" t="n">
         <v>4</v>
@@ -1311,10 +1311,10 @@
         <v>5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O5" t="n">
         <v>1.2</v>
@@ -1323,10 +1323,10 @@
         <v>4.33</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R5" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S5" t="n">
         <v>1.33</v>
@@ -1350,7 +1350,7 @@
         <v>8.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA5" t="n">
         <v>13</v>
@@ -1395,13 +1395,13 @@
         <v>3.75</v>
       </c>
       <c r="AO5" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AP5" t="n">
         <v>17</v>
       </c>
       <c r="AQ5" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AR5" t="n">
         <v>41</v>
@@ -1419,10 +1419,10 @@
         <v>51</v>
       </c>
       <c r="AW5" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AX5" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AY5" t="n">
         <v>29</v>
@@ -1434,7 +1434,7 @@
         <v>101</v>
       </c>
       <c r="BB5" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC5" t="n">
         <v>51</v>
@@ -1481,7 +1481,7 @@
         <v>3.4</v>
       </c>
       <c r="I6" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="J6" t="n">
         <v>3.1</v>
@@ -1505,10 +1505,10 @@
         <v>4</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R6" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="S6" t="n">
         <v>1.33</v>
@@ -1517,13 +1517,13 @@
         <v>3.25</v>
       </c>
       <c r="U6" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="V6" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="W6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X6" t="n">
         <v>13</v>
@@ -1538,7 +1538,7 @@
         <v>19</v>
       </c>
       <c r="AB6" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC6" t="n">
         <v>13</v>
@@ -1568,7 +1568,7 @@
         <v>26</v>
       </c>
       <c r="AL6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AM6" t="n">
         <v>26</v>
@@ -1693,16 +1693,16 @@
         <v>2.7</v>
       </c>
       <c r="S7" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="T7" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="U7" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="V7" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="W7" t="n">
         <v>9</v>
@@ -2203,7 +2203,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H10" t="n">
         <v>3.75</v>
@@ -2215,10 +2215,10 @@
         <v>2.3</v>
       </c>
       <c r="K10" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L10" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M10" t="n">
         <v>1.03</v>
@@ -2227,10 +2227,10 @@
         <v>17</v>
       </c>
       <c r="O10" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P10" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q10" t="n">
         <v>1.53</v>
@@ -2239,10 +2239,10 @@
         <v>2.4</v>
       </c>
       <c r="S10" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="T10" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U10" t="n">
         <v>1.53</v>
@@ -2251,10 +2251,10 @@
         <v>2.38</v>
       </c>
       <c r="W10" t="n">
+        <v>11</v>
+      </c>
+      <c r="X10" t="n">
         <v>10</v>
-      </c>
-      <c r="X10" t="n">
-        <v>11</v>
       </c>
       <c r="Y10" t="n">
         <v>8.5</v>
@@ -2284,7 +2284,7 @@
         <v>101</v>
       </c>
       <c r="AH10" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI10" t="n">
         <v>26</v>
@@ -2308,7 +2308,7 @@
         <v>9</v>
       </c>
       <c r="AP10" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AQ10" t="n">
         <v>26</v>
@@ -2320,7 +2320,7 @@
         <v>81</v>
       </c>
       <c r="AT10" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="AU10" t="n">
         <v>7</v>
@@ -2329,7 +2329,7 @@
         <v>41</v>
       </c>
       <c r="AW10" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AX10" t="n">
         <v>21</v>
@@ -2338,7 +2338,7 @@
         <v>23</v>
       </c>
       <c r="AZ10" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA10" t="n">
         <v>67</v>
@@ -2385,22 +2385,22 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="H11" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I11" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L11" t="n">
         <v>4.5</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="K11" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="L11" t="n">
-        <v>5</v>
       </c>
       <c r="M11" t="n">
         <v>1.03</v>
@@ -2427,22 +2427,22 @@
         <v>3.25</v>
       </c>
       <c r="U11" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="V11" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W11" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X11" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Y11" t="n">
         <v>8.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA11" t="n">
         <v>13</v>
@@ -2454,13 +2454,13 @@
         <v>13</v>
       </c>
       <c r="AD11" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE11" t="n">
         <v>15</v>
       </c>
       <c r="AF11" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG11" t="n">
         <v>201</v>
@@ -2472,10 +2472,10 @@
         <v>23</v>
       </c>
       <c r="AJ11" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK11" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL11" t="n">
         <v>34</v>
@@ -2484,16 +2484,16 @@
         <v>34</v>
       </c>
       <c r="AN11" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO11" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AP11" t="n">
         <v>17</v>
       </c>
       <c r="AQ11" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR11" t="n">
         <v>41</v>
@@ -2505,7 +2505,7 @@
         <v>3.25</v>
       </c>
       <c r="AU11" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV11" t="n">
         <v>51</v>
@@ -2517,13 +2517,13 @@
         <v>23</v>
       </c>
       <c r="AY11" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ11" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA11" t="n">
         <v>81</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>101</v>
       </c>
       <c r="BB11" t="n">
         <v>151</v>
@@ -2570,7 +2570,7 @@
         <v>1.22</v>
       </c>
       <c r="H12" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="I12" t="n">
         <v>17</v>
@@ -2585,10 +2585,10 @@
         <v>13</v>
       </c>
       <c r="M12" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O12" t="n">
         <v>1.3</v>
@@ -4214,13 +4214,13 @@
         <v>6.6</v>
       </c>
       <c r="J21" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="K21" t="n">
         <v>2.47</v>
       </c>
       <c r="L21" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="M21" t="n">
         <v>1.03</v>
@@ -4232,7 +4232,7 @@
         <v>1.16</v>
       </c>
       <c r="P21" t="n">
-        <v>4.65</v>
+        <v>4.6</v>
       </c>
       <c r="Q21" t="n">
         <v>1.5</v>
@@ -4244,7 +4244,7 @@
         <v>1.28</v>
       </c>
       <c r="T21" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="U21" t="n">
         <v>1.65</v>
@@ -4253,22 +4253,22 @@
         <v>2.1</v>
       </c>
       <c r="W21" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="X21" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="Y21" t="n">
         <v>8.25</v>
       </c>
       <c r="Z21" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AA21" t="n">
         <v>10.25</v>
       </c>
-      <c r="AA21" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AB21" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AC21" t="n">
         <v>9.25</v>
@@ -4277,19 +4277,19 @@
         <v>9.25</v>
       </c>
       <c r="AE21" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AF21" t="n">
         <v>55</v>
       </c>
       <c r="AG21" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AH21" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AI21" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AJ21" t="n">
         <v>20</v>
@@ -4298,55 +4298,55 @@
         <v>150</v>
       </c>
       <c r="AL21" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AM21" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AN21" t="n">
         <v>3.5</v>
       </c>
       <c r="AO21" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AP21" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AQ21" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AR21" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AS21" t="n">
         <v>150</v>
       </c>
       <c r="AT21" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="AU21" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AV21" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AW21" t="n">
         <v>8.25</v>
       </c>
       <c r="AX21" t="n">
+        <v>37</v>
+      </c>
+      <c r="AY21" t="n">
         <v>35</v>
       </c>
-      <c r="AY21" t="n">
-        <v>30</v>
-      </c>
       <c r="AZ21" t="n">
+        <v>250</v>
+      </c>
+      <c r="BA21" t="n">
         <v>200</v>
       </c>
-      <c r="BA21" t="n">
-        <v>175</v>
-      </c>
       <c r="BB21" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="BC21" t="n">
         <v>500</v>
@@ -4575,7 +4575,7 @@
         <v>2.95</v>
       </c>
       <c r="I23" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="J23" t="n">
         <v>3.15</v>
@@ -4593,13 +4593,13 @@
         <v>7.2</v>
       </c>
       <c r="O23" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="P23" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="R23" t="n">
         <v>1.62</v>
@@ -4686,7 +4686,7 @@
         <v>250</v>
       </c>
       <c r="AT23" t="n">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="AU23" t="n">
         <v>6.6</v>
@@ -7299,22 +7299,22 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="H38" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I38" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="J38" t="n">
-        <v>4.25</v>
+        <v>4.3</v>
       </c>
       <c r="K38" t="n">
         <v>2.05</v>
       </c>
       <c r="L38" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="M38" t="n">
         <v>1.08</v>
@@ -7329,10 +7329,10 @@
         <v>2.75</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R38" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S38" t="n">
         <v>1.47</v>
@@ -7341,16 +7341,16 @@
         <v>2.55</v>
       </c>
       <c r="U38" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="V38" t="n">
         <v>1.75</v>
       </c>
       <c r="W38" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="X38" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="Y38" t="n">
         <v>13</v>
@@ -7359,7 +7359,7 @@
         <v>55</v>
       </c>
       <c r="AA38" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AB38" t="n">
         <v>50</v>
@@ -7368,34 +7368,34 @@
         <v>6.4</v>
       </c>
       <c r="AD38" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AE38" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AF38" t="n">
         <v>100</v>
       </c>
       <c r="AG38" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AH38" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="AI38" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AJ38" t="n">
         <v>8.75</v>
       </c>
       <c r="AK38" t="n">
+        <v>16</v>
+      </c>
+      <c r="AL38" t="n">
         <v>17</v>
       </c>
-      <c r="AL38" t="n">
-        <v>17.5</v>
-      </c>
       <c r="AM38" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AN38" t="n">
         <v>5.4</v>
@@ -7416,28 +7416,28 @@
         <v>500</v>
       </c>
       <c r="AT38" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="AU38" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AV38" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AW38" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="AX38" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AY38" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AZ38" t="n">
         <v>40</v>
       </c>
       <c r="BA38" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="BB38" t="n">
         <v>350</v>

--- a/Jogos_da_Semana_FlashScore_2024-09-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-09-25.xlsx
@@ -1475,22 +1475,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="H6" t="n">
         <v>3.4</v>
       </c>
       <c r="I6" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="J6" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K6" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L6" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M6" t="n">
         <v>1.04</v>
@@ -1499,16 +1499,16 @@
         <v>13</v>
       </c>
       <c r="O6" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P6" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="R6" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="S6" t="n">
         <v>1.33</v>
@@ -1523,16 +1523,16 @@
         <v>2.25</v>
       </c>
       <c r="W6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X6" t="n">
         <v>13</v>
       </c>
       <c r="Y6" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA6" t="n">
         <v>19</v>
@@ -1553,7 +1553,7 @@
         <v>41</v>
       </c>
       <c r="AG6" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AH6" t="n">
         <v>11</v>
@@ -1562,13 +1562,13 @@
         <v>15</v>
       </c>
       <c r="AJ6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK6" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AL6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM6" t="n">
         <v>26</v>
@@ -1601,7 +1601,7 @@
         <v>41</v>
       </c>
       <c r="AW6" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AX6" t="n">
         <v>15</v>
@@ -1672,19 +1672,19 @@
         <v>2.88</v>
       </c>
       <c r="L7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M7" t="n">
         <v>1.02</v>
       </c>
       <c r="N7" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="O7" t="n">
         <v>1.09</v>
       </c>
       <c r="P7" t="n">
-        <v>5</v>
+        <v>5.05</v>
       </c>
       <c r="Q7" t="n">
         <v>1.44</v>
@@ -1705,7 +1705,7 @@
         <v>1.65</v>
       </c>
       <c r="W7" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X7" t="n">
         <v>6.5</v>
@@ -1723,16 +1723,16 @@
         <v>29</v>
       </c>
       <c r="AC7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD7" t="n">
         <v>13</v>
       </c>
       <c r="AE7" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF7" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG7" t="n">
         <v>351</v>
@@ -1747,7 +1747,7 @@
         <v>34</v>
       </c>
       <c r="AK7" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AL7" t="n">
         <v>81</v>
@@ -1765,7 +1765,7 @@
         <v>17</v>
       </c>
       <c r="AQ7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR7" t="n">
         <v>34</v>
@@ -1789,10 +1789,10 @@
         <v>51</v>
       </c>
       <c r="AY7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AZ7" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BA7" t="n">
         <v>251</v>
@@ -2570,7 +2570,7 @@
         <v>1.22</v>
       </c>
       <c r="H12" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="I12" t="n">
         <v>17</v>
@@ -2591,16 +2591,16 @@
         <v>11</v>
       </c>
       <c r="O12" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P12" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="R12" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="S12" t="n">
         <v>1.4</v>
@@ -4593,13 +4593,13 @@
         <v>7.2</v>
       </c>
       <c r="O23" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="P23" t="n">
-        <v>2.7</v>
+        <v>2.67</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="R23" t="n">
         <v>1.62</v>
@@ -4638,7 +4638,7 @@
         <v>7.9</v>
       </c>
       <c r="AD23" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AE23" t="n">
         <v>14</v>
@@ -4668,7 +4668,7 @@
         <v>35</v>
       </c>
       <c r="AN23" t="n">
-        <v>4.45</v>
+        <v>4.5</v>
       </c>
       <c r="AO23" t="n">
         <v>14</v>
@@ -4686,7 +4686,7 @@
         <v>250</v>
       </c>
       <c r="AT23" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AU23" t="n">
         <v>6.6</v>
@@ -4695,7 +4695,7 @@
         <v>55</v>
       </c>
       <c r="AW23" t="n">
-        <v>4.6</v>
+        <v>4.65</v>
       </c>
       <c r="AX23" t="n">
         <v>14.5</v>
@@ -7302,16 +7302,16 @@
         <v>3.7</v>
       </c>
       <c r="H38" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I38" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="J38" t="n">
-        <v>4.3</v>
+        <v>4.35</v>
       </c>
       <c r="K38" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="L38" t="n">
         <v>2.57</v>
@@ -7350,10 +7350,10 @@
         <v>9.25</v>
       </c>
       <c r="X38" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="Y38" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Z38" t="n">
         <v>55</v>
@@ -7362,46 +7362,46 @@
         <v>40</v>
       </c>
       <c r="AB38" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AC38" t="n">
         <v>6.4</v>
       </c>
       <c r="AD38" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AE38" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AF38" t="n">
         <v>100</v>
       </c>
       <c r="AG38" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AH38" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AI38" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AJ38" t="n">
         <v>8.75</v>
       </c>
       <c r="AK38" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AL38" t="n">
         <v>17</v>
       </c>
       <c r="AM38" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AN38" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="AO38" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AP38" t="n">
         <v>32</v>
@@ -7410,13 +7410,13 @@
         <v>120</v>
       </c>
       <c r="AR38" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AS38" t="n">
         <v>500</v>
       </c>
       <c r="AT38" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="AU38" t="n">
         <v>7.9</v>
@@ -7431,13 +7431,13 @@
         <v>10</v>
       </c>
       <c r="AY38" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AZ38" t="n">
         <v>40</v>
       </c>
       <c r="BA38" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="BB38" t="n">
         <v>350</v>

--- a/Jogos_da_Semana_FlashScore_2024-09-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-09-25.xlsx
@@ -1681,10 +1681,10 @@
         <v>16</v>
       </c>
       <c r="O7" t="n">
-        <v>1.09</v>
+        <v>1.14</v>
       </c>
       <c r="P7" t="n">
-        <v>5.05</v>
+        <v>5.86</v>
       </c>
       <c r="Q7" t="n">
         <v>1.44</v>
@@ -1693,10 +1693,10 @@
         <v>2.7</v>
       </c>
       <c r="S7" t="n">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="T7" t="n">
-        <v>3.9</v>
+        <v>3.92</v>
       </c>
       <c r="U7" t="n">
         <v>2</v>
@@ -2567,46 +2567,46 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="H12" t="n">
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="I12" t="n">
         <v>17</v>
       </c>
       <c r="J12" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="K12" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L12" t="n">
         <v>13</v>
       </c>
       <c r="M12" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O12" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P12" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.98</v>
+        <v>1.85</v>
       </c>
       <c r="R12" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="S12" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T12" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U12" t="n">
         <v>3</v>
@@ -2615,7 +2615,7 @@
         <v>1.36</v>
       </c>
       <c r="W12" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="X12" t="n">
         <v>4.75</v>
@@ -2633,10 +2633,10 @@
         <v>41</v>
       </c>
       <c r="AC12" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE12" t="n">
         <v>41</v>
@@ -2648,7 +2648,7 @@
         <v>201</v>
       </c>
       <c r="AH12" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI12" t="n">
         <v>67</v>
@@ -2684,7 +2684,7 @@
         <v>251</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU12" t="n">
         <v>13</v>
@@ -4569,91 +4569,91 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="H23" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="I23" t="n">
-        <v>2.75</v>
+        <v>2.67</v>
       </c>
       <c r="J23" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="K23" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="L23" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M23" t="n">
-        <v>1.02</v>
+        <v>1.09</v>
       </c>
       <c r="N23" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="O23" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P23" t="n">
-        <v>2.67</v>
+        <v>2.62</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="R23" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S23" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="T23" t="n">
-        <v>2.52</v>
+        <v>2.47</v>
       </c>
       <c r="U23" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V23" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W23" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="X23" t="n">
         <v>12.5</v>
       </c>
       <c r="Y23" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="Z23" t="n">
         <v>30</v>
       </c>
       <c r="AA23" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AB23" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AC23" t="n">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="AD23" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AE23" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AF23" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AG23" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AH23" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AI23" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AJ23" t="n">
         <v>10</v>
@@ -4671,34 +4671,34 @@
         <v>4.5</v>
       </c>
       <c r="AO23" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>22</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>65</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>100</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>300</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>60</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX23" t="n">
         <v>14</v>
-      </c>
-      <c r="AP23" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>60</v>
-      </c>
-      <c r="AR23" t="n">
-        <v>90</v>
-      </c>
-      <c r="AS23" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT23" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU23" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AV23" t="n">
-        <v>55</v>
-      </c>
-      <c r="AW23" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="AX23" t="n">
-        <v>14.5</v>
       </c>
       <c r="AY23" t="n">
         <v>21</v>
@@ -7302,19 +7302,19 @@
         <v>3.7</v>
       </c>
       <c r="H38" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I38" t="n">
         <v>1.93</v>
       </c>
       <c r="J38" t="n">
-        <v>4.35</v>
+        <v>4.25</v>
       </c>
       <c r="K38" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="L38" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="M38" t="n">
         <v>1.08</v>
@@ -7347,13 +7347,13 @@
         <v>1.75</v>
       </c>
       <c r="W38" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="X38" t="n">
         <v>19</v>
       </c>
       <c r="Y38" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Z38" t="n">
         <v>55</v>
@@ -7362,7 +7362,7 @@
         <v>40</v>
       </c>
       <c r="AB38" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AC38" t="n">
         <v>6.4</v>
@@ -7380,10 +7380,10 @@
         <v>900</v>
       </c>
       <c r="AH38" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AI38" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AJ38" t="n">
         <v>8.75</v>
@@ -7392,16 +7392,16 @@
         <v>16.5</v>
       </c>
       <c r="AL38" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AM38" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AN38" t="n">
         <v>5.5</v>
       </c>
       <c r="AO38" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AP38" t="n">
         <v>32</v>
@@ -7410,7 +7410,7 @@
         <v>120</v>
       </c>
       <c r="AR38" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AS38" t="n">
         <v>500</v>
@@ -7419,25 +7419,25 @@
         <v>2.5</v>
       </c>
       <c r="AU38" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="AV38" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AW38" t="n">
         <v>3.7</v>
       </c>
       <c r="AX38" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AY38" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AZ38" t="n">
         <v>40</v>
       </c>
       <c r="BA38" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="BB38" t="n">
         <v>350</v>
